--- a/tests/artifact/script/Mobile-Godown.xlsx
+++ b/tests/artifact/script/Mobile-Godown.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="935">
   <si>
     <t>target</t>
   </si>
@@ -2354,6 +2354,12 @@
     <t>${org.Inventory}</t>
   </si>
   <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>Click on godowns option from Inventory</t>
   </si>
   <si>
@@ -2504,7 +2510,7 @@
     <t>${Popup.Loc}</t>
   </si>
   <si>
-    <t>Verify alert Cancel button</t>
+    <t>Click on Cancel button</t>
   </si>
   <si>
     <t>${alert.button.cancel}</t>
@@ -2516,7 +2522,7 @@
     <t>Cick on OK button</t>
   </si>
   <si>
-    <t>${confirmation.ok}</t>
+    <t>${alert.button.ok}</t>
   </si>
   <si>
     <t>Verify the success message</t>
@@ -2759,9 +2765,6 @@
     <t>Click on Cancel Button</t>
   </si>
   <si>
-    <t>${confirmation.cancel}</t>
-  </si>
-  <si>
     <t>Click on OK Button</t>
   </si>
   <si>
@@ -2816,9 +2819,6 @@
     <t>wait for windows to popup</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>fetch the filename from the save  as window</t>
   </si>
   <si>
@@ -2847,9 +2847,6 @@
   </si>
   <si>
     <t>${data.path}\UI-Godown</t>
-  </si>
-  <si>
-    <t>wait</t>
   </si>
   <si>
     <t>Move files from Downloads to new directory</t>
@@ -3648,7 +3645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3900,22 +3897,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7144,7 +7138,7 @@
       <c r="E5" s="37" t="s">
         <v>748</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="90" t="s">
         <v>749</v>
       </c>
       <c r="G5" s="37"/>
@@ -9979,10 +9973,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1:O177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10238,7 +10232,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>363</v>
+        <v>714</v>
       </c>
       <c r="E9" s="43" t="s">
         <v>764</v>
@@ -10254,130 +10248,127 @@
       <c r="N9" s="69"/>
       <c r="O9" s="58"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="28" spans="1:15">
-      <c r="A10" s="28" t="s">
+    <row r="10" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="29" t="s">
         <v>765</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="C10" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>766</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="F10" s="44">
+        <v>2000</v>
+      </c>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="58"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E10" s="43" t="s">
+      <c r="D11" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="58"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A12" s="28" t="s">
         <v>767</v>
       </c>
-      <c r="F10" s="45">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="31"/>
-    </row>
-    <row r="11" s="7" customFormat="1" ht="15.5" spans="2:15">
-      <c r="B11" s="29" t="s">
+      <c r="B12" s="29" t="s">
         <v>768</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>769</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="72"/>
-    </row>
-    <row r="12" s="7" customFormat="1" ht="15.5" spans="2:15">
-      <c r="B12" s="29" t="s">
-        <v>771</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E12" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>769</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A13" s="41"/>
+      <c r="B13" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="58"/>
+    </row>
+    <row r="14" s="7" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B14" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>771</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>772</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>773</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="72"/>
-    </row>
-    <row r="13" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="29" t="s">
-        <v>774</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>775</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>776</v>
-      </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="72"/>
-    </row>
-    <row r="14" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>778</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>779</v>
       </c>
       <c r="G14" s="47"/>
       <c r="H14" s="48"/>
@@ -10389,29 +10380,24 @@
       <c r="N14" s="73"/>
       <c r="O14" s="72"/>
     </row>
-    <row r="15" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50" t="s">
-        <v>780</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>486</v>
+    <row r="15" s="7" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B15" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>706</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>779</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>782</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="48"/>
       <c r="J15" s="71"/>
       <c r="K15" s="72"/>
@@ -10422,21 +10408,23 @@
     </row>
     <row r="16" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="49"/>
-      <c r="B16" s="50" t="s">
-        <v>783</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>363</v>
+      <c r="D16" s="37" t="s">
+        <v>706</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="37"/>
+        <v>777</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="48"/>
       <c r="J16" s="71"/>
       <c r="K16" s="72"/>
@@ -10448,7 +10436,7 @@
     <row r="17" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="49"/>
       <c r="B17" s="29" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>30</v>
@@ -10457,10 +10445,10 @@
         <v>706</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="48"/>
@@ -10474,23 +10462,27 @@
     </row>
     <row r="18" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="49"/>
-      <c r="B18" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>706</v>
+      <c r="B18" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>486</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>790</v>
-      </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+        <v>754</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>784</v>
+      </c>
       <c r="I18" s="48"/>
       <c r="J18" s="71"/>
       <c r="K18" s="72"/>
@@ -10499,35 +10491,35 @@
       <c r="N18" s="73"/>
       <c r="O18" s="72"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29" t="s">
-        <v>791</v>
-      </c>
-      <c r="C19" s="36" t="s">
+    <row r="19" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50" t="s">
+        <v>785</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="43" t="s">
         <v>363</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F19" s="46"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="31"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="72"/>
     </row>
     <row r="20" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="49"/>
       <c r="B20" s="29" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>30</v>
@@ -10536,10 +10528,10 @@
         <v>706</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
@@ -10554,7 +10546,7 @@
     <row r="21" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="49"/>
       <c r="B21" s="29" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>30</v>
@@ -10563,10 +10555,10 @@
         <v>706</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
@@ -10578,56 +10570,50 @@
       <c r="N21" s="73"/>
       <c r="O21" s="72"/>
     </row>
-    <row r="22" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="49"/>
+    <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>706</v>
+        <v>363</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>778</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>779</v>
-      </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="72"/>
+        <v>794</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="49"/>
-      <c r="B23" s="50" t="s">
-        <v>780</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>486</v>
+      <c r="B23" s="29" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>706</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>754</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>779</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>782</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="48"/>
       <c r="J23" s="71"/>
       <c r="K23" s="72"/>
@@ -10638,21 +10624,23 @@
     </row>
     <row r="24" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="49"/>
-      <c r="B24" s="50" t="s">
-        <v>783</v>
-      </c>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>363</v>
+      <c r="D24" s="37" t="s">
+        <v>706</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>784</v>
-      </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="37"/>
+        <v>777</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="48"/>
       <c r="J24" s="71"/>
       <c r="K24" s="72"/>
@@ -10664,19 +10652,19 @@
     <row r="25" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="49"/>
       <c r="B25" s="29" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>471</v>
+        <v>706</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="48"/>
@@ -10690,23 +10678,27 @@
     </row>
     <row r="26" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="49"/>
-      <c r="B26" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>706</v>
+      <c r="B26" s="50" t="s">
+        <v>782</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>486</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>798</v>
-      </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
+        <v>754</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>784</v>
+      </c>
       <c r="I26" s="48"/>
       <c r="J26" s="71"/>
       <c r="K26" s="72"/>
@@ -10717,23 +10709,21 @@
     </row>
     <row r="27" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="49"/>
-      <c r="B27" s="29" t="s">
-        <v>799</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>471</v>
+      <c r="B27" s="50" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>363</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>800</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>790</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+        <v>786</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="48"/>
       <c r="J27" s="71"/>
       <c r="K27" s="72"/>
@@ -10745,19 +10735,19 @@
     <row r="28" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="49"/>
       <c r="B28" s="29" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>706</v>
+        <v>471</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="G28" s="47"/>
       <c r="H28" s="48"/>
@@ -10769,105 +10759,105 @@
       <c r="N28" s="73"/>
       <c r="O28" s="72"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A29" s="28"/>
+    <row r="29" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="49"/>
       <c r="B29" s="29" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E29" s="51" t="s">
+        <v>706</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>800</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="72"/>
+    </row>
+    <row r="30" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="49"/>
+      <c r="B30" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>792</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="72"/>
+    </row>
+    <row r="31" s="7" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="49"/>
+      <c r="B31" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="F31" s="46" t="s">
         <v>804</v>
       </c>
-      <c r="F29" s="52">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29" t="s">
-        <v>805</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>806</v>
-      </c>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>808</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>809</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>773</v>
-      </c>
-      <c r="H31" s="37" t="s">
-        <v>810</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="31"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="72"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="28"/>
       <c r="B32" s="29" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C32" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>812</v>
-      </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+        <v>806</v>
+      </c>
+      <c r="F32" s="52">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="43"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="67"/>
@@ -10879,20 +10869,20 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="28"/>
-      <c r="B33" s="50" t="s">
-        <v>813</v>
-      </c>
-      <c r="C33" s="42" t="s">
+      <c r="B33" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="54" t="s">
-        <v>814</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="43"/>
+      <c r="E33" s="51" t="s">
+        <v>808</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
       <c r="J33" s="67"/>
@@ -10905,22 +10895,26 @@
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="28"/>
       <c r="B34" s="29" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>804</v>
-      </c>
-      <c r="F34" s="52">
-        <v>1000</v>
-      </c>
-      <c r="G34" s="43"/>
-      <c r="H34" s="37"/>
+        <v>810</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>811</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>812</v>
+      </c>
       <c r="I34" s="37"/>
       <c r="J34" s="67"/>
       <c r="K34" s="31"/>
@@ -10932,7 +10926,7 @@
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A35" s="28"/>
       <c r="B35" s="29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>30</v>
@@ -10941,7 +10935,7 @@
         <v>253</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="F35" s="52"/>
       <c r="G35" s="53"/>
@@ -10956,20 +10950,20 @@
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="28"/>
-      <c r="B36" s="29" t="s">
-        <v>816</v>
-      </c>
-      <c r="C36" s="36" t="s">
+      <c r="B36" s="50" t="s">
+        <v>815</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="E36" s="51" t="s">
-        <v>817</v>
+      <c r="E36" s="54" t="s">
+        <v>816</v>
       </c>
       <c r="F36" s="52">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="37"/>
@@ -10984,18 +10978,20 @@
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="28"/>
       <c r="B37" s="29" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>253</v>
+      <c r="D37" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>819</v>
-      </c>
-      <c r="F37" s="52"/>
+        <v>806</v>
+      </c>
+      <c r="F37" s="52">
+        <v>1000</v>
+      </c>
       <c r="G37" s="43"/>
       <c r="H37" s="37"/>
       <c r="I37" s="37"/>
@@ -11008,20 +11004,20 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A38" s="28"/>
-      <c r="B38" s="50" t="s">
-        <v>820</v>
+      <c r="B38" s="29" t="s">
+        <v>817</v>
       </c>
       <c r="C38" s="36" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>821</v>
-      </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="43"/>
+        <v>253</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="37"/>
       <c r="I38" s="37"/>
       <c r="J38" s="67"/>
@@ -11032,23 +11028,21 @@
       <c r="O38" s="31"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="28" t="s">
-        <v>822</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>823</v>
-      </c>
-      <c r="C39" s="42" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>483</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>824</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>825</v>
+      <c r="D39" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>819</v>
+      </c>
+      <c r="F39" s="52">
+        <v>2000</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="37"/>
@@ -11062,21 +11056,19 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="28"/>
-      <c r="B40" s="50" t="s">
-        <v>826</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>5</v>
+      <c r="B40" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>471</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>827</v>
-      </c>
-      <c r="F40" s="55">
-        <v>1</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="F40" s="52"/>
       <c r="G40" s="43"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
@@ -11090,19 +11082,19 @@
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="28"/>
       <c r="B41" s="50" t="s">
-        <v>828</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="E41" s="56">
-        <v>7</v>
+        <v>822</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>823</v>
       </c>
       <c r="F41" s="55">
-        <v>-1</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="37"/>
@@ -11115,21 +11107,23 @@
       <c r="O41" s="31"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="28"/>
+      <c r="A42" s="28" t="s">
+        <v>824</v>
+      </c>
       <c r="B42" s="50" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>49</v>
+        <v>483</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F42" s="55" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="37"/>
@@ -11144,26 +11138,22 @@
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A43" s="28"/>
       <c r="B43" s="50" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>833</v>
-      </c>
-      <c r="F43" s="55" t="s">
-        <v>809</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>830</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>834</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="F43" s="55">
+        <v>1</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="67"/>
       <c r="K43" s="31"/>
@@ -11175,26 +11165,22 @@
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="28"/>
       <c r="B44" s="50" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>835</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>836</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>773</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>837</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="E44" s="56">
+        <v>7</v>
+      </c>
+      <c r="F44" s="55">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="67"/>
       <c r="K44" s="31"/>
@@ -11206,18 +11192,20 @@
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="28"/>
       <c r="B45" s="50" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="E45" s="55" t="s">
-        <v>839</v>
-      </c>
-      <c r="F45" s="43"/>
+        <v>832</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>833</v>
+      </c>
       <c r="G45" s="43"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
@@ -11228,187 +11216,195 @@
       <c r="N45" s="32"/>
       <c r="O45" s="31"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="29" spans="1:15">
+    <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="28"/>
       <c r="B46" s="50" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>830</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="37"/>
+        <v>835</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>832</v>
+      </c>
+      <c r="H46" s="37" t="s">
+        <v>836</v>
+      </c>
       <c r="I46" s="37"/>
-      <c r="J46" s="67" t="s">
-        <v>842</v>
-      </c>
+      <c r="J46" s="67"/>
       <c r="K46" s="31"/>
       <c r="L46" s="32"/>
       <c r="M46" s="30"/>
       <c r="N46" s="32"/>
       <c r="O46" s="31"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="29" spans="1:15">
+    <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="28"/>
       <c r="B47" s="50" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E47" s="55" t="s">
+        <v>837</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H47" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="F47" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="37"/>
       <c r="I47" s="37"/>
-      <c r="J47" s="67" t="s">
-        <v>844</v>
-      </c>
+      <c r="J47" s="67"/>
       <c r="K47" s="31"/>
       <c r="L47" s="32"/>
       <c r="M47" s="30"/>
       <c r="N47" s="32"/>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="29" spans="1:15">
+    <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="28"/>
       <c r="B48" s="50" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>827</v>
-      </c>
-      <c r="F48" s="46">
-        <v>1</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="F48" s="43"/>
       <c r="G48" s="43"/>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
-      <c r="J48" s="67" t="s">
-        <v>846</v>
-      </c>
+      <c r="J48" s="67"/>
       <c r="K48" s="31"/>
       <c r="L48" s="32"/>
       <c r="M48" s="30"/>
       <c r="N48" s="32"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="15.5" spans="1:15">
+    <row r="49" s="2" customFormat="1" ht="29" spans="1:15">
       <c r="A49" s="28"/>
       <c r="B49" s="50" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>848</v>
-      </c>
-      <c r="F49" s="46"/>
+        <v>843</v>
+      </c>
+      <c r="F49" s="54" t="s">
+        <v>832</v>
+      </c>
       <c r="G49" s="43"/>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
-      <c r="J49" s="67"/>
+      <c r="J49" s="67" t="s">
+        <v>844</v>
+      </c>
       <c r="K49" s="31"/>
       <c r="L49" s="32"/>
       <c r="M49" s="30"/>
       <c r="N49" s="32"/>
       <c r="O49" s="31"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="50" s="2" customFormat="1" ht="29" spans="1:15">
       <c r="A50" s="28"/>
       <c r="B50" s="50" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E50" s="55">
+        <v>576</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>841</v>
+      </c>
+      <c r="F50" s="46">
         <v>2000</v>
       </c>
-      <c r="F50" s="53"/>
       <c r="G50" s="43"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="67"/>
+      <c r="J50" s="67" t="s">
+        <v>846</v>
+      </c>
       <c r="K50" s="31"/>
       <c r="L50" s="32"/>
       <c r="M50" s="30"/>
       <c r="N50" s="32"/>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="51" s="2" customFormat="1" ht="29" spans="1:15">
       <c r="A51" s="28"/>
       <c r="B51" s="50" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>706</v>
+        <v>302</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>851</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>852</v>
+        <v>829</v>
+      </c>
+      <c r="F51" s="46">
+        <v>1</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
-      <c r="J51" s="67"/>
+      <c r="J51" s="67" t="s">
+        <v>848</v>
+      </c>
       <c r="K51" s="31"/>
       <c r="L51" s="32"/>
       <c r="M51" s="30"/>
       <c r="N51" s="32"/>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="52" s="2" customFormat="1" ht="15.5" spans="1:15">
       <c r="A52" s="28"/>
       <c r="B52" s="50" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>854</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>796</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="F52" s="46"/>
       <c r="G52" s="43"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
@@ -11422,20 +11418,18 @@
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="28"/>
       <c r="B53" s="50" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>706</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>856</v>
-      </c>
-      <c r="F53" s="46" t="s">
-        <v>857</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E53" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F53" s="53"/>
       <c r="G53" s="43"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -11449,18 +11443,20 @@
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="28"/>
       <c r="B54" s="50" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E54" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F54" s="53"/>
+        <v>706</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>853</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>854</v>
+      </c>
       <c r="G54" s="43"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
@@ -11474,19 +11470,19 @@
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="28"/>
       <c r="B55" s="50" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>576</v>
+        <v>471</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>859</v>
-      </c>
-      <c r="F55" s="46">
-        <v>1000</v>
+        <v>856</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>798</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="37"/>
@@ -11501,18 +11497,20 @@
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="28"/>
       <c r="B56" s="50" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>253</v>
+        <v>706</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>861</v>
-      </c>
-      <c r="F56" s="46"/>
+        <v>858</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>859</v>
+      </c>
       <c r="G56" s="43"/>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -11523,21 +11521,21 @@
       <c r="N56" s="32"/>
       <c r="O56" s="31"/>
     </row>
-    <row r="57" s="2" customFormat="1" ht="28" spans="1:15">
-      <c r="A57" s="28" t="s">
-        <v>862</v>
-      </c>
+    <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="28"/>
       <c r="B57" s="50" t="s">
-        <v>820</v>
-      </c>
-      <c r="C57" s="36" t="s">
+        <v>851</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="46"/>
+      <c r="D57" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="E57" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="53"/>
       <c r="G57" s="43"/>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -11551,18 +11549,20 @@
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="28"/>
       <c r="B58" s="50" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E58" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F58" s="53"/>
+        <v>576</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>861</v>
+      </c>
+      <c r="F58" s="46">
+        <v>1000</v>
+      </c>
       <c r="G58" s="43"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -11576,26 +11576,20 @@
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="28"/>
       <c r="B59" s="50" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>486</v>
+        <v>253</v>
       </c>
       <c r="E59" s="55" t="s">
         <v>863</v>
       </c>
-      <c r="F59" s="55" t="s">
-        <v>809</v>
-      </c>
-      <c r="G59" s="55" t="s">
-        <v>864</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>865</v>
-      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="67"/>
       <c r="K59" s="31"/>
@@ -11604,23 +11598,21 @@
       <c r="N59" s="32"/>
       <c r="O59" s="31"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="28"/>
+    <row r="60" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A60" s="28" t="s">
+        <v>864</v>
+      </c>
       <c r="B60" s="50" t="s">
-        <v>866</v>
-      </c>
-      <c r="C60" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="C60" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E60" s="55" t="s">
-        <v>867</v>
-      </c>
-      <c r="F60" s="53" t="s">
-        <v>773</v>
-      </c>
+      <c r="D60" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="E60" s="55"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="43"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
@@ -11634,7 +11626,7 @@
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="28"/>
       <c r="B61" s="50" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C61" s="42" t="s">
         <v>30</v>
@@ -11659,7 +11651,7 @@
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="28"/>
       <c r="B62" s="50" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C62" s="42" t="s">
         <v>5</v>
@@ -11668,16 +11660,16 @@
         <v>486</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F62" s="55" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I62" s="37"/>
       <c r="J62" s="67"/>
@@ -11690,7 +11682,7 @@
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="28"/>
       <c r="B63" s="50" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C63" s="42" t="s">
         <v>30</v>
@@ -11699,10 +11691,10 @@
         <v>319</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>870</v>
-      </c>
-      <c r="F63" s="46" t="s">
-        <v>779</v>
+        <v>869</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>775</v>
       </c>
       <c r="G63" s="43"/>
       <c r="H63" s="37"/>
@@ -11717,7 +11709,7 @@
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="28"/>
       <c r="B64" s="50" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C64" s="42" t="s">
         <v>30</v>
@@ -11742,7 +11734,7 @@
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="28"/>
       <c r="B65" s="50" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C65" s="42" t="s">
         <v>5</v>
@@ -11751,16 +11743,16 @@
         <v>486</v>
       </c>
       <c r="E65" s="55" t="s">
+        <v>870</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G65" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="H65" s="37" t="s">
         <v>871</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>809</v>
-      </c>
-      <c r="G65" s="55" t="s">
-        <v>864</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>872</v>
       </c>
       <c r="I65" s="37"/>
       <c r="J65" s="67"/>
@@ -11773,7 +11765,7 @@
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="28"/>
       <c r="B66" s="50" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C66" s="42" t="s">
         <v>30</v>
@@ -11782,10 +11774,10 @@
         <v>319</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F66" s="46" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="G66" s="43"/>
       <c r="H66" s="37"/>
@@ -11800,7 +11792,7 @@
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="28"/>
       <c r="B67" s="50" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>30</v>
@@ -11825,7 +11817,7 @@
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="28"/>
       <c r="B68" s="50" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C68" s="42" t="s">
         <v>5</v>
@@ -11834,16 +11826,16 @@
         <v>486</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I68" s="37"/>
       <c r="J68" s="67"/>
@@ -11856,7 +11848,7 @@
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="28"/>
       <c r="B69" s="50" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C69" s="42" t="s">
         <v>30</v>
@@ -11865,10 +11857,10 @@
         <v>319</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>878</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>852</v>
+        <v>876</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>804</v>
       </c>
       <c r="G69" s="43"/>
       <c r="H69" s="37"/>
@@ -11883,7 +11875,7 @@
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="28"/>
       <c r="B70" s="50" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C70" s="42" t="s">
         <v>30</v>
@@ -11908,7 +11900,7 @@
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="28"/>
       <c r="B71" s="50" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C71" s="42" t="s">
         <v>5</v>
@@ -11917,16 +11909,16 @@
         <v>486</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I71" s="37"/>
       <c r="J71" s="67"/>
@@ -11939,7 +11931,7 @@
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="28"/>
       <c r="B72" s="50" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C72" s="42" t="s">
         <v>30</v>
@@ -11948,10 +11940,10 @@
         <v>319</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>882</v>
-      </c>
-      <c r="F72" s="46" t="s">
-        <v>857</v>
+        <v>880</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>854</v>
       </c>
       <c r="G72" s="43"/>
       <c r="H72" s="37"/>
@@ -11966,7 +11958,7 @@
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="28"/>
       <c r="B73" s="50" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C73" s="42" t="s">
         <v>30</v>
@@ -11989,11 +11981,9 @@
       <c r="O73" s="31"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A74" s="28" t="s">
-        <v>883</v>
-      </c>
+      <c r="A74" s="28"/>
       <c r="B74" s="50" t="s">
-        <v>884</v>
+        <v>834</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>5</v>
@@ -12002,16 +11992,16 @@
         <v>486</v>
       </c>
       <c r="E74" s="55" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F74" s="55" t="s">
-        <v>886</v>
-      </c>
-      <c r="G74" s="53" t="s">
-        <v>773</v>
+        <v>811</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>866</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I74" s="37"/>
       <c r="J74" s="67"/>
@@ -12021,22 +12011,24 @@
       <c r="N74" s="32"/>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="28"/>
       <c r="B75" s="50" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C75" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>576</v>
+        <v>319</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>889</v>
-      </c>
-      <c r="F75" s="46">
-        <v>2000</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>859</v>
+      </c>
+      <c r="G75" s="43"/>
       <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="67"/>
@@ -12049,20 +12041,18 @@
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="28"/>
       <c r="B76" s="50" t="s">
-        <v>890</v>
+        <v>851</v>
       </c>
       <c r="C76" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E76" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="F76" s="46">
+        <v>714</v>
+      </c>
+      <c r="E76" s="55">
         <v>2000</v>
       </c>
+      <c r="F76" s="53"/>
       <c r="G76" s="43"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -12074,9 +12064,11 @@
       <c r="O76" s="31"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="28"/>
+      <c r="A77" s="28" t="s">
+        <v>885</v>
+      </c>
       <c r="B77" s="50" t="s">
-        <v>807</v>
+        <v>886</v>
       </c>
       <c r="C77" s="42" t="s">
         <v>5</v>
@@ -12085,16 +12077,16 @@
         <v>486</v>
       </c>
       <c r="E77" s="55" t="s">
-        <v>892</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>893</v>
+        <v>887</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>888</v>
       </c>
       <c r="G77" s="53" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="I77" s="37"/>
       <c r="J77" s="67"/>
@@ -12104,22 +12096,22 @@
       <c r="N77" s="32"/>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="28"/>
+    <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B78" s="50" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>896</v>
-      </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="43"/>
+        <v>891</v>
+      </c>
+      <c r="F78" s="46">
+        <v>2000</v>
+      </c>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="67"/>
@@ -12132,7 +12124,7 @@
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="28"/>
       <c r="B79" s="50" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>30</v>
@@ -12141,7 +12133,7 @@
         <v>576</v>
       </c>
       <c r="E79" s="55" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F79" s="46">
         <v>2000</v>
@@ -12159,20 +12151,26 @@
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="28"/>
       <c r="B80" s="50" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E80" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E80" s="55" t="s">
+        <v>894</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="G80" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>896</v>
+      </c>
       <c r="I80" s="37"/>
       <c r="J80" s="67"/>
       <c r="K80" s="31"/>
@@ -12184,20 +12182,18 @@
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="28"/>
       <c r="B81" s="50" t="s">
-        <v>890</v>
+        <v>897</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E81" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="F81" s="46">
-        <v>2000</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="F81" s="46"/>
       <c r="G81" s="43"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
@@ -12211,18 +12207,20 @@
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="28"/>
       <c r="B82" s="50" t="s">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="C82" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E82" s="55">
+        <v>576</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="F82" s="46">
         <v>2000</v>
       </c>
-      <c r="F82" s="53"/>
       <c r="G82" s="43"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
@@ -12236,20 +12234,18 @@
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="28"/>
       <c r="B83" s="50" t="s">
-        <v>899</v>
+        <v>851</v>
       </c>
       <c r="C83" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E83" s="55" t="s">
-        <v>817</v>
-      </c>
-      <c r="F83" s="46">
+        <v>714</v>
+      </c>
+      <c r="E83" s="55">
         <v>2000</v>
       </c>
+      <c r="F83" s="53"/>
       <c r="G83" s="43"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
@@ -12263,26 +12259,22 @@
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="28"/>
       <c r="B84" s="50" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="E84" s="55" t="s">
-        <v>901</v>
-      </c>
-      <c r="F84" s="46" t="s">
         <v>893</v>
       </c>
-      <c r="G84" s="53" t="s">
-        <v>773</v>
-      </c>
-      <c r="H84" s="37" t="s">
-        <v>902</v>
-      </c>
+      <c r="F84" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G84" s="43"/>
+      <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="67"/>
       <c r="K84" s="31"/>
@@ -12294,18 +12286,18 @@
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="28"/>
       <c r="B85" s="50" t="s">
-        <v>903</v>
+        <v>851</v>
       </c>
       <c r="C85" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E85" s="55" t="s">
-        <v>904</v>
-      </c>
-      <c r="F85" s="46"/>
+        <v>714</v>
+      </c>
+      <c r="E85" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F85" s="53"/>
       <c r="G85" s="43"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
@@ -12319,20 +12311,21 @@
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="28"/>
       <c r="B86" s="50" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C86" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>366</v>
+        <v>576</v>
       </c>
       <c r="E86" s="55" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="F86" s="46">
-        <v>5000</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="G86" s="43"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="67"/>
@@ -12343,25 +12336,28 @@
       <c r="O86" s="31"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="28" t="s">
-        <v>906</v>
-      </c>
+      <c r="A87" s="28"/>
       <c r="B87" s="50" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E87" s="55" t="s">
-        <v>908</v>
-      </c>
-      <c r="F87" s="46">
-        <v>5000</v>
-      </c>
-      <c r="H87" s="37"/>
+        <v>902</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>895</v>
+      </c>
+      <c r="G87" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H87" s="37" t="s">
+        <v>903</v>
+      </c>
       <c r="I87" s="37"/>
       <c r="J87" s="67"/>
       <c r="K87" s="31"/>
@@ -12373,23 +12369,19 @@
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="28"/>
       <c r="B88" s="50" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D88" s="43" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="E88" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="F88" s="46" t="s">
-        <v>910</v>
-      </c>
-      <c r="G88" s="46" t="s">
-        <v>911</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="F88" s="46"/>
+      <c r="G88" s="43"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="67"/>
@@ -12400,21 +12392,22 @@
       <c r="O88" s="31"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A89" s="41" t="s">
-        <v>912</v>
-      </c>
+      <c r="A89" s="28"/>
       <c r="B89" s="50" t="s">
-        <v>820</v>
-      </c>
-      <c r="C89" s="36" t="s">
+        <v>906</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="46"/>
+      <c r="D89" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="E89" s="55" t="s">
+        <v>841</v>
+      </c>
+      <c r="F89" s="46">
+        <v>5000</v>
+      </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="67"/>
@@ -12424,46 +12417,54 @@
       <c r="N89" s="32"/>
       <c r="O89" s="31"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="28" t="s">
+        <v>907</v>
+      </c>
       <c r="B90" s="50" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C90" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E90" s="43" t="s">
-        <v>914</v>
-      </c>
-      <c r="F90" s="37"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="69"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="69"/>
-      <c r="O90" s="58"/>
+        <v>576</v>
+      </c>
+      <c r="E90" s="55" t="s">
+        <v>909</v>
+      </c>
+      <c r="F90" s="46">
+        <v>5000</v>
+      </c>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="67"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="31"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A91" s="28"/>
       <c r="B91" s="50" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C91" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E91" s="43" t="s">
-        <v>914</v>
-      </c>
-      <c r="F91" s="55"/>
-      <c r="G91" s="43"/>
+      <c r="D91" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="55" t="s">
+        <v>893</v>
+      </c>
+      <c r="F91" s="46" t="s">
+        <v>911</v>
+      </c>
+      <c r="G91" s="46" t="s">
+        <v>912</v>
+      </c>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="67"/>
@@ -12473,74 +12474,71 @@
       <c r="N91" s="32"/>
       <c r="O91" s="31"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="75"/>
-      <c r="B92" s="35" t="s">
+    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="41" t="s">
+        <v>913</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>822</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="E92" s="55"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="67"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="31"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B93" s="50" t="s">
+        <v>914</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="F93" s="37"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="69"/>
+      <c r="M93" s="70"/>
+      <c r="N93" s="69"/>
+      <c r="O93" s="58"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A94" s="28"/>
+      <c r="B94" s="50" t="s">
         <v>916</v>
       </c>
-      <c r="C92" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="E92" s="35" t="s">
-        <v>917</v>
-      </c>
-      <c r="F92" s="77"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="69"/>
-      <c r="O92" s="58"/>
-    </row>
-    <row r="93" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29" t="s">
-        <v>918</v>
-      </c>
-      <c r="C93" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>919</v>
-      </c>
-      <c r="F93" s="78" t="s">
-        <v>920</v>
-      </c>
-      <c r="G93" s="76"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="30"/>
-      <c r="N93" s="32"/>
-      <c r="O93" s="31"/>
-    </row>
-    <row r="94" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A94" s="28"/>
-      <c r="B94" s="35" t="s">
-        <v>921</v>
-      </c>
-      <c r="C94" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="F94" s="78"/>
-      <c r="G94" s="76"/>
+      <c r="C94" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>915</v>
+      </c>
+      <c r="F94" s="55"/>
+      <c r="G94" s="43"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="67"/>
@@ -12550,49 +12548,49 @@
       <c r="N94" s="32"/>
       <c r="O94" s="31"/>
     </row>
-    <row r="95" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A95" s="28"/>
+    <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A95" s="75"/>
       <c r="B95" s="35" t="s">
-        <v>923</v>
-      </c>
-      <c r="C95" s="36" t="s">
+        <v>917</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F95" s="76"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="58"/>
+      <c r="L95" s="69"/>
+      <c r="M95" s="70"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="58"/>
+    </row>
+    <row r="96" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A96" s="28"/>
+      <c r="B96" s="29" t="s">
+        <v>918</v>
+      </c>
+      <c r="C96" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D95" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="E95" s="78" t="s">
-        <v>924</v>
-      </c>
-      <c r="F95" s="79" t="s">
-        <v>925</v>
-      </c>
-      <c r="G95" s="76"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="30"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="31"/>
-    </row>
-    <row r="96" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A96" s="80"/>
-      <c r="B96" s="35" t="s">
-        <v>926</v>
-      </c>
-      <c r="C96" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>337</v>
-      </c>
-      <c r="E96" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="F96" s="35"/>
-      <c r="G96" s="76"/>
+      <c r="D96" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>919</v>
+      </c>
+      <c r="F96" s="77" t="s">
+        <v>920</v>
+      </c>
+      <c r="G96" s="78"/>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
       <c r="J96" s="67"/>
@@ -12602,22 +12600,22 @@
       <c r="N96" s="32"/>
       <c r="O96" s="31"/>
     </row>
-    <row r="97" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A97" s="80"/>
+    <row r="97" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A97" s="28"/>
       <c r="B97" s="35" t="s">
-        <v>928</v>
-      </c>
-      <c r="C97" s="36" t="s">
+        <v>921</v>
+      </c>
+      <c r="C97" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="E97" s="81">
-        <v>3000</v>
-      </c>
-      <c r="F97" s="35"/>
-      <c r="G97" s="76"/>
+      <c r="D97" s="43" t="s">
+        <v>536</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>922</v>
+      </c>
+      <c r="F97" s="77"/>
+      <c r="G97" s="78"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
       <c r="J97" s="67"/>
@@ -12627,24 +12625,24 @@
       <c r="N97" s="32"/>
       <c r="O97" s="31"/>
     </row>
-    <row r="98" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A98" s="82"/>
+    <row r="98" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A98" s="28"/>
       <c r="B98" s="35" t="s">
-        <v>929</v>
-      </c>
-      <c r="C98" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="E98" s="78" t="s">
-        <v>930</v>
-      </c>
-      <c r="F98" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="G98" s="76"/>
+        <v>923</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>924</v>
+      </c>
+      <c r="F98" s="79" t="s">
+        <v>925</v>
+      </c>
+      <c r="G98" s="78"/>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
       <c r="J98" s="67"/>
@@ -12655,23 +12653,21 @@
       <c r="O98" s="31"/>
     </row>
     <row r="99" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="82"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="35" t="s">
-        <v>931</v>
-      </c>
-      <c r="C99" s="36" t="s">
+        <v>926</v>
+      </c>
+      <c r="C99" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="37" t="s">
-        <v>372</v>
-      </c>
-      <c r="E99" s="78" t="s">
-        <v>932</v>
-      </c>
-      <c r="F99" s="78" t="s">
-        <v>933</v>
-      </c>
-      <c r="G99" s="76"/>
+      <c r="D99" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>927</v>
+      </c>
+      <c r="F99" s="35"/>
+      <c r="G99" s="78"/>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
       <c r="J99" s="67"/>
@@ -12681,26 +12677,22 @@
       <c r="N99" s="32"/>
       <c r="O99" s="31"/>
     </row>
-    <row r="100" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="28" t="s">
-        <v>934</v>
-      </c>
-      <c r="B100" s="29" t="s">
-        <v>935</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="E100" s="78" t="s">
-        <v>927</v>
-      </c>
-      <c r="F100" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G100" s="43"/>
+    <row r="100" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="80"/>
+      <c r="B100" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="E100" s="43">
+        <v>3000</v>
+      </c>
+      <c r="F100" s="35"/>
+      <c r="G100" s="78"/>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="67"/>
@@ -12710,12 +12702,24 @@
       <c r="N100" s="32"/>
       <c r="O100" s="31"/>
     </row>
-    <row r="101" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="28"/>
-      <c r="B101" s="50"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="43"/>
+    <row r="101" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="81"/>
+      <c r="B101" s="35" t="s">
+        <v>928</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>929</v>
+      </c>
+      <c r="F101" s="77" t="s">
+        <v>927</v>
+      </c>
+      <c r="G101" s="78"/>
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="67"/>
@@ -12725,64 +12729,84 @@
       <c r="N101" s="32"/>
       <c r="O101" s="31"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="41"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="69"/>
-      <c r="M102" s="70"/>
-      <c r="N102" s="69"/>
-      <c r="O102" s="58"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="41"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
+    <row r="102" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="81"/>
+      <c r="B102" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>931</v>
+      </c>
+      <c r="F102" s="77" t="s">
+        <v>932</v>
+      </c>
+      <c r="G102" s="78"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="67"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="31"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A103" s="28" t="s">
+        <v>933</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>934</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>927</v>
+      </c>
+      <c r="F103" s="55" t="b">
+        <v>1</v>
+      </c>
       <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="69"/>
-      <c r="M103" s="70"/>
-      <c r="N103" s="69"/>
-      <c r="O103" s="58"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A104" s="41"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="67"/>
+      <c r="K103" s="31"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="31"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="28"/>
       <c r="B104" s="50"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
       <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="69"/>
-      <c r="M104" s="70"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="58"/>
-    </row>
-    <row r="105" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="67"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="31"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="41"/>
       <c r="B105" s="50"/>
       <c r="C105" s="42"/>
       <c r="D105" s="43"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
       <c r="I105" s="43"/>
@@ -12793,13 +12817,13 @@
       <c r="N105" s="69"/>
       <c r="O105" s="58"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="41"/>
       <c r="B106" s="50"/>
       <c r="C106" s="42"/>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
-      <c r="F106" s="37"/>
+      <c r="F106" s="43"/>
       <c r="G106" s="43"/>
       <c r="H106" s="43"/>
       <c r="I106" s="43"/>
@@ -12815,8 +12839,8 @@
       <c r="B107" s="50"/>
       <c r="C107" s="42"/>
       <c r="D107" s="43"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
@@ -12832,7 +12856,7 @@
       <c r="B108" s="50"/>
       <c r="C108" s="42"/>
       <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
+      <c r="E108" s="37"/>
       <c r="F108" s="37"/>
       <c r="G108" s="43"/>
       <c r="H108" s="43"/>
@@ -12844,30 +12868,30 @@
       <c r="N108" s="69"/>
       <c r="O108" s="58"/>
     </row>
-    <row r="109" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A109" s="28"/>
+    <row r="109" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A109" s="41"/>
       <c r="B109" s="50"/>
       <c r="C109" s="42"/>
       <c r="D109" s="43"/>
-      <c r="E109" s="40"/>
+      <c r="E109" s="43"/>
       <c r="F109" s="37"/>
       <c r="G109" s="43"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="31"/>
-      <c r="L109" s="32"/>
-      <c r="M109" s="30"/>
-      <c r="N109" s="32"/>
-      <c r="O109" s="31"/>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="68"/>
+      <c r="K109" s="58"/>
+      <c r="L109" s="69"/>
+      <c r="M109" s="70"/>
+      <c r="N109" s="69"/>
+      <c r="O109" s="58"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A110" s="41"/>
       <c r="B110" s="50"/>
       <c r="C110" s="42"/>
       <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
       <c r="G110" s="43"/>
       <c r="H110" s="43"/>
       <c r="I110" s="43"/>
@@ -12878,13 +12902,13 @@
       <c r="N110" s="69"/>
       <c r="O110" s="58"/>
     </row>
-    <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="111" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A111" s="41"/>
       <c r="B111" s="50"/>
       <c r="C111" s="42"/>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
-      <c r="F111" s="83"/>
+      <c r="F111" s="37"/>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
       <c r="I111" s="43"/>
@@ -12895,30 +12919,30 @@
       <c r="N111" s="69"/>
       <c r="O111" s="58"/>
     </row>
-    <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="41"/>
+    <row r="112" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A112" s="28"/>
       <c r="B112" s="50"/>
       <c r="C112" s="42"/>
       <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="83"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="37"/>
       <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="58"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="70"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="58"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="67"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="30"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="31"/>
     </row>
     <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A113" s="41"/>
       <c r="B113" s="50"/>
       <c r="C113" s="42"/>
       <c r="D113" s="43"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="46"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
       <c r="G113" s="43"/>
       <c r="H113" s="43"/>
       <c r="I113" s="43"/>
@@ -12934,8 +12958,8 @@
       <c r="B114" s="50"/>
       <c r="C114" s="42"/>
       <c r="D114" s="43"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="46"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="82"/>
       <c r="G114" s="43"/>
       <c r="H114" s="43"/>
       <c r="I114" s="43"/>
@@ -12952,7 +12976,7 @@
       <c r="C115" s="42"/>
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
-      <c r="F115" s="37"/>
+      <c r="F115" s="82"/>
       <c r="G115" s="43"/>
       <c r="H115" s="43"/>
       <c r="I115" s="43"/>
@@ -12968,8 +12992,8 @@
       <c r="B116" s="50"/>
       <c r="C116" s="42"/>
       <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="46"/>
       <c r="G116" s="43"/>
       <c r="H116" s="43"/>
       <c r="I116" s="43"/>
@@ -12985,8 +13009,8 @@
       <c r="B117" s="50"/>
       <c r="C117" s="42"/>
       <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="46"/>
       <c r="G117" s="43"/>
       <c r="H117" s="43"/>
       <c r="I117" s="43"/>
@@ -12997,7 +13021,7 @@
       <c r="N117" s="69"/>
       <c r="O117" s="58"/>
     </row>
-    <row r="118" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row r="118" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A118" s="41"/>
       <c r="B118" s="50"/>
       <c r="C118" s="42"/>
@@ -13014,13 +13038,13 @@
       <c r="N118" s="69"/>
       <c r="O118" s="58"/>
     </row>
-    <row r="119" s="1" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="119" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A119" s="41"/>
       <c r="B119" s="50"/>
       <c r="C119" s="42"/>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
+      <c r="F119" s="37"/>
       <c r="G119" s="43"/>
       <c r="H119" s="43"/>
       <c r="I119" s="43"/>
@@ -13037,7 +13061,7 @@
       <c r="C120" s="42"/>
       <c r="D120" s="43"/>
       <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
+      <c r="F120" s="37"/>
       <c r="G120" s="43"/>
       <c r="H120" s="43"/>
       <c r="I120" s="43"/>
@@ -13048,13 +13072,13 @@
       <c r="N120" s="69"/>
       <c r="O120" s="58"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="121" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A121" s="41"/>
       <c r="B121" s="50"/>
       <c r="C121" s="42"/>
       <c r="D121" s="43"/>
       <c r="E121" s="43"/>
-      <c r="F121" s="83"/>
+      <c r="F121" s="37"/>
       <c r="G121" s="43"/>
       <c r="H121" s="43"/>
       <c r="I121" s="43"/>
@@ -13065,13 +13089,13 @@
       <c r="N121" s="69"/>
       <c r="O121" s="58"/>
     </row>
-    <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="122" s="1" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A122" s="41"/>
       <c r="B122" s="50"/>
       <c r="C122" s="42"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
-      <c r="F122" s="83"/>
+      <c r="F122" s="43"/>
       <c r="G122" s="43"/>
       <c r="H122" s="43"/>
       <c r="I122" s="43"/>
@@ -13088,7 +13112,7 @@
       <c r="C123" s="42"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
-      <c r="F123" s="83"/>
+      <c r="F123" s="43"/>
       <c r="G123" s="43"/>
       <c r="H123" s="43"/>
       <c r="I123" s="43"/>
@@ -13105,7 +13129,7 @@
       <c r="C124" s="42"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
-      <c r="F124" s="83"/>
+      <c r="F124" s="82"/>
       <c r="G124" s="43"/>
       <c r="H124" s="43"/>
       <c r="I124" s="43"/>
@@ -13122,7 +13146,7 @@
       <c r="C125" s="42"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
-      <c r="F125" s="83"/>
+      <c r="F125" s="82"/>
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
       <c r="I125" s="43"/>
@@ -13139,7 +13163,7 @@
       <c r="C126" s="42"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
-      <c r="F126" s="83"/>
+      <c r="F126" s="82"/>
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
       <c r="I126" s="43"/>
@@ -13156,7 +13180,7 @@
       <c r="C127" s="42"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
+      <c r="F127" s="82"/>
       <c r="G127" s="43"/>
       <c r="H127" s="43"/>
       <c r="I127" s="43"/>
@@ -13173,7 +13197,7 @@
       <c r="C128" s="42"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
-      <c r="F128" s="68"/>
+      <c r="F128" s="82"/>
       <c r="G128" s="43"/>
       <c r="H128" s="43"/>
       <c r="I128" s="43"/>
@@ -13190,7 +13214,7 @@
       <c r="C129" s="42"/>
       <c r="D129" s="43"/>
       <c r="E129" s="43"/>
-      <c r="F129" s="44"/>
+      <c r="F129" s="82"/>
       <c r="G129" s="43"/>
       <c r="H129" s="43"/>
       <c r="I129" s="43"/>
@@ -13224,7 +13248,7 @@
       <c r="C131" s="42"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
+      <c r="F131" s="68"/>
       <c r="G131" s="43"/>
       <c r="H131" s="43"/>
       <c r="I131" s="43"/>
@@ -13241,7 +13265,7 @@
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
-      <c r="F132" s="68"/>
+      <c r="F132" s="44"/>
       <c r="G132" s="43"/>
       <c r="H132" s="43"/>
       <c r="I132" s="43"/>
@@ -13286,13 +13310,13 @@
       <c r="N134" s="69"/>
       <c r="O134" s="58"/>
     </row>
-    <row r="135" s="1" customFormat="1" spans="1:15">
+    <row r="135" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A135" s="41"/>
       <c r="B135" s="50"/>
       <c r="C135" s="42"/>
       <c r="D135" s="43"/>
       <c r="E135" s="43"/>
-      <c r="F135" s="37"/>
+      <c r="F135" s="68"/>
       <c r="G135" s="43"/>
       <c r="H135" s="43"/>
       <c r="I135" s="43"/>
@@ -13303,13 +13327,13 @@
       <c r="N135" s="69"/>
       <c r="O135" s="58"/>
     </row>
-    <row r="136" s="1" customFormat="1" spans="1:15">
+    <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A136" s="41"/>
       <c r="B136" s="50"/>
       <c r="C136" s="42"/>
       <c r="D136" s="43"/>
       <c r="E136" s="43"/>
-      <c r="F136" s="37"/>
+      <c r="F136" s="43"/>
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
       <c r="I136" s="43"/>
@@ -13320,13 +13344,13 @@
       <c r="N136" s="69"/>
       <c r="O136" s="58"/>
     </row>
-    <row r="137" s="1" customFormat="1" spans="1:15">
+    <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A137" s="41"/>
       <c r="B137" s="50"/>
       <c r="C137" s="42"/>
       <c r="D137" s="43"/>
       <c r="E137" s="43"/>
-      <c r="F137" s="37"/>
+      <c r="F137" s="43"/>
       <c r="G137" s="43"/>
       <c r="H137" s="43"/>
       <c r="I137" s="43"/>
@@ -13340,8 +13364,8 @@
     <row r="138" s="1" customFormat="1" spans="1:15">
       <c r="A138" s="41"/>
       <c r="B138" s="50"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
       <c r="E138" s="43"/>
       <c r="F138" s="37"/>
       <c r="G138" s="43"/>
@@ -13360,7 +13384,7 @@
       <c r="C139" s="42"/>
       <c r="D139" s="43"/>
       <c r="E139" s="43"/>
-      <c r="F139" s="44"/>
+      <c r="F139" s="37"/>
       <c r="G139" s="43"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
@@ -13377,7 +13401,7 @@
       <c r="C140" s="42"/>
       <c r="D140" s="43"/>
       <c r="E140" s="43"/>
-      <c r="F140" s="43"/>
+      <c r="F140" s="37"/>
       <c r="G140" s="43"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
@@ -13391,10 +13415,10 @@
     <row r="141" s="1" customFormat="1" spans="1:15">
       <c r="A141" s="41"/>
       <c r="B141" s="50"/>
-      <c r="C141" s="42"/>
-      <c r="D141" s="43"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
       <c r="E141" s="43"/>
-      <c r="F141" s="43"/>
+      <c r="F141" s="37"/>
       <c r="G141" s="43"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
@@ -13405,13 +13429,13 @@
       <c r="N141" s="69"/>
       <c r="O141" s="58"/>
     </row>
-    <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="142" s="1" customFormat="1" spans="1:15">
       <c r="A142" s="41"/>
       <c r="B142" s="50"/>
       <c r="C142" s="42"/>
       <c r="D142" s="43"/>
       <c r="E142" s="43"/>
-      <c r="F142" s="68"/>
+      <c r="F142" s="44"/>
       <c r="G142" s="43"/>
       <c r="H142" s="43"/>
       <c r="I142" s="43"/>
@@ -13422,13 +13446,13 @@
       <c r="N142" s="69"/>
       <c r="O142" s="58"/>
     </row>
-    <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="143" s="1" customFormat="1" spans="1:15">
       <c r="A143" s="41"/>
       <c r="B143" s="50"/>
       <c r="C143" s="42"/>
       <c r="D143" s="43"/>
       <c r="E143" s="43"/>
-      <c r="F143" s="68"/>
+      <c r="F143" s="43"/>
       <c r="G143" s="43"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
@@ -13445,7 +13469,7 @@
       <c r="C144" s="42"/>
       <c r="D144" s="43"/>
       <c r="E144" s="43"/>
-      <c r="F144" s="37"/>
+      <c r="F144" s="43"/>
       <c r="G144" s="43"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
@@ -13456,13 +13480,13 @@
       <c r="N144" s="69"/>
       <c r="O144" s="58"/>
     </row>
-    <row r="145" s="1" customFormat="1" spans="1:15">
+    <row r="145" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A145" s="41"/>
       <c r="B145" s="50"/>
       <c r="C145" s="42"/>
       <c r="D145" s="43"/>
       <c r="E145" s="43"/>
-      <c r="F145" s="37"/>
+      <c r="F145" s="68"/>
       <c r="G145" s="43"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
@@ -13473,13 +13497,13 @@
       <c r="N145" s="69"/>
       <c r="O145" s="58"/>
     </row>
-    <row r="146" s="1" customFormat="1" spans="1:15">
+    <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A146" s="41"/>
       <c r="B146" s="50"/>
       <c r="C146" s="42"/>
       <c r="D146" s="43"/>
       <c r="E146" s="43"/>
-      <c r="F146" s="37"/>
+      <c r="F146" s="68"/>
       <c r="G146" s="43"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
@@ -13490,7 +13514,7 @@
       <c r="N146" s="69"/>
       <c r="O146" s="58"/>
     </row>
-    <row r="147" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="147" s="1" customFormat="1" spans="1:15">
       <c r="A147" s="41"/>
       <c r="B147" s="50"/>
       <c r="C147" s="42"/>
@@ -13507,7 +13531,7 @@
       <c r="N147" s="69"/>
       <c r="O147" s="58"/>
     </row>
-    <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="148" s="1" customFormat="1" spans="1:15">
       <c r="A148" s="41"/>
       <c r="B148" s="50"/>
       <c r="C148" s="42"/>
@@ -13524,13 +13548,13 @@
       <c r="N148" s="69"/>
       <c r="O148" s="58"/>
     </row>
-    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="149" s="1" customFormat="1" spans="1:15">
       <c r="A149" s="41"/>
       <c r="B149" s="50"/>
       <c r="C149" s="42"/>
       <c r="D149" s="43"/>
       <c r="E149" s="43"/>
-      <c r="F149" s="43"/>
+      <c r="F149" s="37"/>
       <c r="G149" s="43"/>
       <c r="H149" s="43"/>
       <c r="I149" s="43"/>
@@ -13544,9 +13568,9 @@
     <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A150" s="41"/>
       <c r="B150" s="50"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
       <c r="F150" s="37"/>
       <c r="G150" s="43"/>
       <c r="H150" s="43"/>
@@ -13558,141 +13582,141 @@
       <c r="N150" s="69"/>
       <c r="O150" s="58"/>
     </row>
-    <row r="151" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="84"/>
-      <c r="B151" s="85"/>
-      <c r="C151" s="86"/>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
-      <c r="I151" s="47"/>
-      <c r="J151" s="87"/>
-      <c r="K151" s="88"/>
-      <c r="L151" s="89"/>
-      <c r="M151" s="90"/>
-      <c r="N151" s="89"/>
-      <c r="O151" s="88"/>
-    </row>
-    <row r="152" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="84"/>
-      <c r="B152" s="85"/>
-      <c r="C152" s="86"/>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="47"/>
-      <c r="J152" s="87"/>
-      <c r="K152" s="88"/>
-      <c r="L152" s="89"/>
-      <c r="M152" s="90"/>
-      <c r="N152" s="89"/>
-      <c r="O152" s="88"/>
-    </row>
-    <row r="153" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="84"/>
-      <c r="B153" s="85"/>
-      <c r="C153" s="86"/>
-      <c r="D153" s="47"/>
-      <c r="E153" s="47"/>
-      <c r="F153" s="47"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
-      <c r="I153" s="47"/>
-      <c r="J153" s="87"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="89"/>
-      <c r="M153" s="90"/>
-      <c r="N153" s="89"/>
-      <c r="O153" s="88"/>
+    <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A151" s="41"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="43"/>
+      <c r="J151" s="68"/>
+      <c r="K151" s="58"/>
+      <c r="L151" s="69"/>
+      <c r="M151" s="70"/>
+      <c r="N151" s="69"/>
+      <c r="O151" s="58"/>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A152" s="41"/>
+      <c r="B152" s="50"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="68"/>
+      <c r="K152" s="58"/>
+      <c r="L152" s="69"/>
+      <c r="M152" s="70"/>
+      <c r="N152" s="69"/>
+      <c r="O152" s="58"/>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A153" s="41"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="68"/>
+      <c r="K153" s="58"/>
+      <c r="L153" s="69"/>
+      <c r="M153" s="70"/>
+      <c r="N153" s="69"/>
+      <c r="O153" s="58"/>
     </row>
     <row r="154" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="84"/>
-      <c r="B154" s="85"/>
-      <c r="C154" s="86"/>
+      <c r="A154" s="83"/>
+      <c r="B154" s="84"/>
+      <c r="C154" s="85"/>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
       <c r="F154" s="47"/>
       <c r="G154" s="47"/>
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
-      <c r="J154" s="87"/>
-      <c r="K154" s="88"/>
-      <c r="L154" s="89"/>
-      <c r="M154" s="90"/>
-      <c r="N154" s="89"/>
-      <c r="O154" s="88"/>
+      <c r="J154" s="86"/>
+      <c r="K154" s="87"/>
+      <c r="L154" s="88"/>
+      <c r="M154" s="89"/>
+      <c r="N154" s="88"/>
+      <c r="O154" s="87"/>
     </row>
     <row r="155" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="84"/>
-      <c r="B155" s="85"/>
-      <c r="C155" s="86"/>
+      <c r="A155" s="83"/>
+      <c r="B155" s="84"/>
+      <c r="C155" s="85"/>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
       <c r="F155" s="47"/>
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
-      <c r="J155" s="87"/>
-      <c r="K155" s="88"/>
-      <c r="L155" s="89"/>
-      <c r="M155" s="90"/>
-      <c r="N155" s="89"/>
-      <c r="O155" s="88"/>
-    </row>
-    <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="41"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="42"/>
-      <c r="D156" s="43"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="43"/>
-      <c r="G156" s="43"/>
-      <c r="H156" s="43"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="68"/>
-      <c r="K156" s="58"/>
-      <c r="L156" s="69"/>
-      <c r="M156" s="70"/>
-      <c r="N156" s="69"/>
-      <c r="O156" s="58"/>
-    </row>
-    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="41"/>
-      <c r="B157" s="50"/>
-      <c r="C157" s="42"/>
-      <c r="D157" s="43"/>
-      <c r="E157" s="43"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="43"/>
-      <c r="H157" s="43"/>
-      <c r="I157" s="43"/>
-      <c r="J157" s="68"/>
-      <c r="K157" s="58"/>
-      <c r="L157" s="69"/>
-      <c r="M157" s="70"/>
-      <c r="N157" s="69"/>
-      <c r="O157" s="58"/>
-    </row>
-    <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="41"/>
-      <c r="B158" s="50"/>
-      <c r="C158" s="42"/>
-      <c r="D158" s="43"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43"/>
-      <c r="I158" s="43"/>
-      <c r="J158" s="68"/>
-      <c r="K158" s="58"/>
-      <c r="L158" s="69"/>
-      <c r="M158" s="70"/>
-      <c r="N158" s="69"/>
-      <c r="O158" s="58"/>
+      <c r="J155" s="86"/>
+      <c r="K155" s="87"/>
+      <c r="L155" s="88"/>
+      <c r="M155" s="89"/>
+      <c r="N155" s="88"/>
+      <c r="O155" s="87"/>
+    </row>
+    <row r="156" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="83"/>
+      <c r="B156" s="84"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="47"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
+      <c r="J156" s="86"/>
+      <c r="K156" s="87"/>
+      <c r="L156" s="88"/>
+      <c r="M156" s="89"/>
+      <c r="N156" s="88"/>
+      <c r="O156" s="87"/>
+    </row>
+    <row r="157" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="83"/>
+      <c r="B157" s="84"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="47"/>
+      <c r="E157" s="47"/>
+      <c r="F157" s="47"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
+      <c r="J157" s="86"/>
+      <c r="K157" s="87"/>
+      <c r="L157" s="88"/>
+      <c r="M157" s="89"/>
+      <c r="N157" s="88"/>
+      <c r="O157" s="87"/>
+    </row>
+    <row r="158" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="83"/>
+      <c r="B158" s="84"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
+      <c r="F158" s="47"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="47"/>
+      <c r="J158" s="86"/>
+      <c r="K158" s="87"/>
+      <c r="L158" s="88"/>
+      <c r="M158" s="89"/>
+      <c r="N158" s="88"/>
+      <c r="O158" s="87"/>
     </row>
     <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A159" s="41"/>
@@ -13966,6 +13990,57 @@
       <c r="N174" s="69"/>
       <c r="O174" s="58"/>
     </row>
+    <row r="175" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="41"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="43"/>
+      <c r="F175" s="43"/>
+      <c r="G175" s="43"/>
+      <c r="H175" s="43"/>
+      <c r="I175" s="43"/>
+      <c r="J175" s="68"/>
+      <c r="K175" s="58"/>
+      <c r="L175" s="69"/>
+      <c r="M175" s="70"/>
+      <c r="N175" s="69"/>
+      <c r="O175" s="58"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="41"/>
+      <c r="B176" s="50"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
+      <c r="I176" s="43"/>
+      <c r="J176" s="68"/>
+      <c r="K176" s="58"/>
+      <c r="L176" s="69"/>
+      <c r="M176" s="70"/>
+      <c r="N176" s="69"/>
+      <c r="O176" s="58"/>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="41"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
+      <c r="I177" s="43"/>
+      <c r="J177" s="68"/>
+      <c r="K177" s="58"/>
+      <c r="L177" s="69"/>
+      <c r="M177" s="70"/>
+      <c r="N177" s="69"/>
+      <c r="O177" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -13974,615 +14049,637 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="beginsWith" dxfId="2" priority="208" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="209" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="210" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25">
-    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="216" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
-    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N38">
+    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57">
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54">
-    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N58">
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59">
-    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62">
-    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
-    <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="111" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66">
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="106" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="110" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67">
-    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68">
-    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69">
-    <cfRule type="beginsWith" dxfId="2" priority="101" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="105" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="112" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="116" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70">
-    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="beginsWith" dxfId="2" priority="107" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="111" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="115" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
+  <conditionalFormatting sqref="N76">
+    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N77">
     <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81">
-    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N84">
+    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N90">
-    <cfRule type="beginsWith" dxfId="2" priority="139" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N90,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N90,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="141" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N90,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N85,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N85,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N85,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N91">
-    <cfRule type="beginsWith" dxfId="2" priority="157" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N91,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="158" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N91,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="159" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N91,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N93">
+    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N93,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="146" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N93,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N93,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N94">
+    <cfRule type="beginsWith" dxfId="2" priority="163" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N94,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="164" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N94,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="165" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N94,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N95">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N95,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N95,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N95,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100">
-    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="146" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N98">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N101">
-    <cfRule type="beginsWith" dxfId="2" priority="148" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="150" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N103">
+    <cfRule type="beginsWith" dxfId="2" priority="151" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="152" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="153" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N109">
-    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N109,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N109,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N109,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N104">
+    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="156" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N132">
-    <cfRule type="beginsWith" dxfId="2" priority="163" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N132,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="164" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N132,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="165" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N132,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N112">
+    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N112,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N112,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N112,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N135">
+    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N135,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N135,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N135,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="216" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N7">
-    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N9">
-    <cfRule type="beginsWith" dxfId="2" priority="211" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N25:N27">
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47:N49">
+    <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63:N64">
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86:N88">
+    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89:N92">
+    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N89,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N89,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N89,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N96:N97">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N96,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N96,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N96,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N99:N102">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N124:N125">
+    <cfRule type="beginsWith" dxfId="2" priority="181" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N124,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="182" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N124,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="183" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N124,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126:N127">
+    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N126,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N126,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N126,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N128:N132">
+    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N128,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N128,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N128,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147:N149">
+    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N147,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N147,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N147,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8 N10:N11">
+    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="212" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="213" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N24">
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N14:N22 N32 N39:N41 N34:N35">
+    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="162" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N46">
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N23:N24 N29:N31">
+    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N60:N61">
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N42:N46 N50:N52">
+    <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="138" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N83:N85">
-    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N54:N56 N78:N82 N75 N58:N60">
+    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86:N89">
-    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N105:N111 N138:N146 N150:N177 N113:N123">
+    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N93:N94">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N93,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N93,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N93,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N96:N99">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N96,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N96,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N96,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N121:N122">
-    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N123:N124">
+  <conditionalFormatting sqref="N133:N134 N136:N137">
     <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N123,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N123,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N123,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N129">
-    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N125,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N125,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N125,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N144:N146">
-    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N144,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N144,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="162" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N144,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N19 N31:N32 N36:N38 N29">
-    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="156" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N21 N26:N28">
-    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N39:N43 N47:N49">
-    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N53 N55:N57 N72 N75:N79">
-    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="108" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N102:N108 N110:N120 N147:N174 N135:N143">
-    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N130:N131 N133:N134">
-    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N130,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N130,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N130,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C15 C16 C19 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C80 C81 C82 C83 C84 C85 C86 C89 C92 C93 C94 C95 C96 C97 C98 C99 C100 C113 C114 C115 C122 C125 C128 C129 C132 C133 C134 C135 C138 C139 C140 C141 C144 C147 C148 C149 C150 C12:C14 C17:C18 C20:C21 C78:C79 C87:C88 C90:C91 C102:C103 C104:C112 C116:C121 C123:C124 C126:C127 C130:C131 C136:C137 C142:C143 C145:C146 C151:C174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C18 C19 C22 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C83 C84 C85 C86 C87 C88 C89 C92 C95 C96 C97 C98 C99 C100 C101 C102 C103 C116 C117 C118 C125 C128 C131 C132 C135 C136 C137 C138 C141 C142 C143 C144 C147 C150 C151 C152 C153 C15:C17 C20:C21 C23:C24 C81:C82 C90:C91 C93:C94 C105:C106 C107:C115 C119:C124 C126:C127 C129:C130 C133:C134 C139:C140 C145:C146 C148:C149 C154:C177">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D15 D16 D19 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D92 D93 D94 D95 D96 D97 D98 D99 D100 D113 D114 D115 D122 D125 D128 D129 D132 D133 D134 D135 D138 D139 D140 D141 D144 D147 D148 D149 D150 D12:D14 D17:D18 D20:D21 D102:D103 D104:D112 D116:D121 D123:D124 D126:D127 D130:D131 D136:D137 D142:D143 D145:D146 D151:D174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D18 D19 D22 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D95 D96 D97 D98 D99 D100 D101 D102 D103 D116 D117 D118 D125 D128 D131 D132 D135 D136 D137 D138 D141 D142 D143 D144 D147 D150 D151 D152 D153 D15:D17 D20:D21 D23:D24 D105:D106 D107:D115 D119:D124 D126:D127 D129:D130 D133:D134 D139:D140 D145:D146 D148:D149 D154:D177">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-Godown.xlsx
+++ b/tests/artifact/script/Mobile-Godown.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="939">
   <si>
     <t>target</t>
   </si>
@@ -2354,7 +2354,7 @@
     <t>${org.Inventory}</t>
   </si>
   <si>
-    <t>wait</t>
+    <t>wait for page load</t>
   </si>
   <si>
     <t>2000</t>
@@ -2618,9 +2618,6 @@
     <t>${EditGodown_Title}</t>
   </si>
   <si>
-    <t>Wait</t>
-  </si>
-  <si>
     <t>Update Contact Person</t>
   </si>
   <si>
@@ -2720,6 +2717,81 @@
     <t>${GodownContactNo.Loc}</t>
   </si>
   <si>
+    <t>Validate godown excel sheet</t>
+  </si>
+  <si>
+    <t>To validate button donwload xl file is present</t>
+  </si>
+  <si>
+    <t>${button.xldownload}</t>
+  </si>
+  <si>
+    <t>click on the Download button</t>
+  </si>
+  <si>
+    <t>fetch the filename from the save  as window</t>
+  </si>
+  <si>
+    <t>xlsxFileName</t>
+  </si>
+  <si>
+    <t>${Windows.SavesAs.Edit}</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>${xlsxFileName}</t>
+  </si>
+  <si>
+    <t>Press the enter button for windows</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>{ENTER}</t>
+  </si>
+  <si>
+    <t>Create a new directory</t>
+  </si>
+  <si>
+    <t>${data.path}\UI-Godown</t>
+  </si>
+  <si>
+    <t>Move files from Downloads to new directory</t>
+  </si>
+  <si>
+    <t>${user.home}\Downloads\${xlsxFileName}.xlsx</t>
+  </si>
+  <si>
+    <t>read file</t>
+  </si>
+  <si>
+    <t>${data.path}\UI-Godown\${xlsxFileName}.xlsx</t>
+  </si>
+  <si>
+    <t>List of Godowns</t>
+  </si>
+  <si>
+    <t>Godowns List</t>
+  </si>
+  <si>
+    <t>save data</t>
+  </si>
+  <si>
+    <t>GodownListContent</t>
+  </si>
+  <si>
+    <t>A4:F7</t>
+  </si>
+  <si>
+    <t>Verify the Godown name available in the file</t>
+  </si>
+  <si>
+    <t>${GodownListContent}</t>
+  </si>
+  <si>
     <t>Delete Godown</t>
   </si>
   <si>
@@ -2802,66 +2874,6 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>Validate godown excel sheet</t>
-  </si>
-  <si>
-    <t>To validate button donwload xl file is present</t>
-  </si>
-  <si>
-    <t>${button.xldownload}</t>
-  </si>
-  <si>
-    <t>click on the Download button</t>
-  </si>
-  <si>
-    <t>wait for windows to popup</t>
-  </si>
-  <si>
-    <t>fetch the filename from the save  as window</t>
-  </si>
-  <si>
-    <t>xlsxFileName</t>
-  </si>
-  <si>
-    <t>${Windows.SavesAs.Edit}</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>${xlsxFileName}</t>
-  </si>
-  <si>
-    <t>Press the enter button for windows</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>{ENTER}</t>
-  </si>
-  <si>
-    <t>Create a new directory</t>
-  </si>
-  <si>
-    <t>${data.path}\UI-Godown</t>
-  </si>
-  <si>
-    <t>Move files from Downloads to new directory</t>
-  </si>
-  <si>
-    <t>${user.home}\Downloads\${xlsxFileName}.xlsx</t>
-  </si>
-  <si>
-    <t>read file</t>
-  </si>
-  <si>
-    <t>filecontent</t>
-  </si>
-  <si>
-    <t>${data.path}\UI-Godown\${xlsxFileName}.xlsx</t>
   </si>
   <si>
     <t>Delete all Exported Files after validation</t>
@@ -9973,10 +9985,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94:E103"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A48" sqref="$A48:$XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -10225,7 +10237,7 @@
     </row>
     <row r="9" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A9" s="41"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="35" t="s">
         <v>763</v>
       </c>
       <c r="C9" s="42" t="s">
@@ -10277,7 +10289,7 @@
     </row>
     <row r="11" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A11" s="41"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="35" t="s">
         <v>763</v>
       </c>
       <c r="C11" s="42" t="s">
@@ -10331,7 +10343,7 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A13" s="41"/>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="35" t="s">
         <v>763</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -11278,54 +11290,50 @@
       <c r="N47" s="32"/>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="50" t="s">
-        <v>840</v>
+    <row r="48" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A48" s="41"/>
+      <c r="B48" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F48" s="43"/>
+        <v>714</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F48" s="44"/>
       <c r="G48" s="43"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="31"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="29" spans="1:15">
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="58"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="28"/>
       <c r="B49" s="50" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>471</v>
+        <v>253</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>843</v>
-      </c>
-      <c r="F49" s="54" t="s">
-        <v>832</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
-      <c r="J49" s="67" t="s">
-        <v>844</v>
-      </c>
+      <c r="J49" s="67"/>
       <c r="K49" s="31"/>
       <c r="L49" s="32"/>
       <c r="M49" s="30"/>
@@ -11335,25 +11343,25 @@
     <row r="50" s="2" customFormat="1" ht="29" spans="1:15">
       <c r="A50" s="28"/>
       <c r="B50" s="50" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D50" s="43" t="s">
-        <v>576</v>
+        <v>471</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F50" s="46">
-        <v>2000</v>
+        <v>843</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>832</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="67" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="K50" s="31"/>
       <c r="L50" s="32"/>
@@ -11364,25 +11372,25 @@
     <row r="51" s="2" customFormat="1" ht="29" spans="1:15">
       <c r="A51" s="28"/>
       <c r="B51" s="50" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>302</v>
+        <v>576</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="F51" s="46">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="67" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K51" s="31"/>
       <c r="L51" s="32"/>
@@ -11390,46 +11398,50 @@
       <c r="N51" s="32"/>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="15.5" spans="1:15">
+    <row r="52" s="2" customFormat="1" ht="29" spans="1:15">
       <c r="A52" s="28"/>
       <c r="B52" s="50" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>850</v>
-      </c>
-      <c r="F52" s="46"/>
+        <v>829</v>
+      </c>
+      <c r="F52" s="46">
+        <v>1</v>
+      </c>
       <c r="G52" s="43"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
-      <c r="J52" s="67"/>
+      <c r="J52" s="67" t="s">
+        <v>848</v>
+      </c>
       <c r="K52" s="31"/>
       <c r="L52" s="32"/>
       <c r="M52" s="30"/>
       <c r="N52" s="32"/>
       <c r="O52" s="31"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="53" s="2" customFormat="1" ht="15.5" spans="1:15">
       <c r="A53" s="28"/>
       <c r="B53" s="50" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E53" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F53" s="53"/>
+        <v>253</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>850</v>
+      </c>
+      <c r="F53" s="46"/>
       <c r="G53" s="43"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
@@ -11442,21 +11454,19 @@
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="28"/>
-      <c r="B54" s="50" t="s">
-        <v>852</v>
+      <c r="B54" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>706</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>853</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>854</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E54" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="53"/>
       <c r="G54" s="43"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
@@ -11470,19 +11480,19 @@
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="28"/>
       <c r="B55" s="50" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>471</v>
+        <v>706</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="F55" s="46" t="s">
-        <v>798</v>
+        <v>853</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="37"/>
@@ -11497,19 +11507,19 @@
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="28"/>
       <c r="B56" s="50" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>706</v>
+        <v>471</v>
       </c>
       <c r="E56" s="55" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>859</v>
+        <v>798</v>
       </c>
       <c r="G56" s="43"/>
       <c r="H56" s="37"/>
@@ -11524,18 +11534,20 @@
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="28"/>
       <c r="B57" s="50" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C57" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E57" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="53"/>
+        <v>706</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>857</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>858</v>
+      </c>
       <c r="G57" s="43"/>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
@@ -11548,21 +11560,19 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="28"/>
-      <c r="B58" s="50" t="s">
-        <v>860</v>
+      <c r="B58" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>861</v>
-      </c>
-      <c r="F58" s="46">
-        <v>1000</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E58" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="53"/>
       <c r="G58" s="43"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -11576,18 +11586,20 @@
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="28"/>
       <c r="B59" s="50" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>863</v>
-      </c>
-      <c r="F59" s="46"/>
+        <v>860</v>
+      </c>
+      <c r="F59" s="46">
+        <v>1000</v>
+      </c>
       <c r="G59" s="43"/>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
@@ -11598,20 +11610,20 @@
       <c r="N59" s="32"/>
       <c r="O59" s="31"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="28" spans="1:15">
-      <c r="A60" s="28" t="s">
-        <v>864</v>
-      </c>
+    <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="28"/>
       <c r="B60" s="50" t="s">
-        <v>822</v>
-      </c>
-      <c r="C60" s="36" t="s">
+        <v>861</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="E60" s="55"/>
+      <c r="D60" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>862</v>
+      </c>
       <c r="F60" s="46"/>
       <c r="G60" s="43"/>
       <c r="H60" s="37"/>
@@ -11623,21 +11635,21 @@
       <c r="N60" s="32"/>
       <c r="O60" s="31"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="28"/>
+    <row r="61" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A61" s="28" t="s">
+        <v>863</v>
+      </c>
       <c r="B61" s="50" t="s">
-        <v>851</v>
-      </c>
-      <c r="C61" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="C61" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E61" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F61" s="53"/>
+      <c r="D61" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="E61" s="55"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="43"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -11650,27 +11662,21 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="28"/>
-      <c r="B62" s="50" t="s">
-        <v>834</v>
+      <c r="B62" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E62" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G62" s="55" t="s">
-        <v>866</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>867</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E62" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="53"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="37"/>
       <c r="J62" s="67"/>
       <c r="K62" s="31"/>
@@ -11682,22 +11688,26 @@
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="28"/>
       <c r="B63" s="50" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D63" s="43" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>869</v>
-      </c>
-      <c r="F63" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="37"/>
+        <v>864</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>866</v>
+      </c>
       <c r="I63" s="37"/>
       <c r="J63" s="67"/>
       <c r="K63" s="31"/>
@@ -11709,18 +11719,20 @@
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="28"/>
       <c r="B64" s="50" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="C64" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E64" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F64" s="53"/>
+        <v>319</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>868</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>775</v>
+      </c>
       <c r="G64" s="43"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
@@ -11733,27 +11745,21 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="28"/>
-      <c r="B65" s="50" t="s">
-        <v>834</v>
+      <c r="B65" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>870</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G65" s="55" t="s">
-        <v>866</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>871</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E65" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="37"/>
       <c r="I65" s="37"/>
       <c r="J65" s="67"/>
       <c r="K65" s="31"/>
@@ -11765,22 +11771,26 @@
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="28"/>
       <c r="B66" s="50" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>872</v>
-      </c>
-      <c r="F66" s="46" t="s">
-        <v>781</v>
-      </c>
-      <c r="G66" s="43"/>
-      <c r="H66" s="37"/>
+        <v>869</v>
+      </c>
+      <c r="F66" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G66" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>870</v>
+      </c>
       <c r="I66" s="37"/>
       <c r="J66" s="67"/>
       <c r="K66" s="31"/>
@@ -11792,18 +11802,20 @@
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="28"/>
       <c r="B67" s="50" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E67" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F67" s="53"/>
+        <v>319</v>
+      </c>
+      <c r="E67" s="55" t="s">
+        <v>871</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>781</v>
+      </c>
       <c r="G67" s="43"/>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -11816,27 +11828,21 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="28"/>
-      <c r="B68" s="50" t="s">
-        <v>834</v>
+      <c r="B68" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E68" s="55" t="s">
-        <v>873</v>
-      </c>
-      <c r="F68" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G68" s="55" t="s">
-        <v>866</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>874</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E68" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F68" s="53"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="37"/>
       <c r="I68" s="37"/>
       <c r="J68" s="67"/>
       <c r="K68" s="31"/>
@@ -11848,22 +11854,26 @@
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="28"/>
       <c r="B69" s="50" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>876</v>
-      </c>
-      <c r="F69" s="46" t="s">
-        <v>804</v>
-      </c>
-      <c r="G69" s="43"/>
-      <c r="H69" s="37"/>
+        <v>872</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G69" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>873</v>
+      </c>
       <c r="I69" s="37"/>
       <c r="J69" s="67"/>
       <c r="K69" s="31"/>
@@ -11875,18 +11885,20 @@
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="28"/>
       <c r="B70" s="50" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="C70" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E70" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F70" s="53"/>
+        <v>319</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>875</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>804</v>
+      </c>
       <c r="G70" s="43"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
@@ -11899,27 +11911,21 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="28"/>
-      <c r="B71" s="50" t="s">
-        <v>834</v>
+      <c r="B71" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E71" s="55" t="s">
-        <v>877</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G71" s="55" t="s">
-        <v>866</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>878</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E71" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="37"/>
       <c r="I71" s="37"/>
       <c r="J71" s="67"/>
       <c r="K71" s="31"/>
@@ -11931,22 +11937,26 @@
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="28"/>
       <c r="B72" s="50" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>880</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>854</v>
-      </c>
-      <c r="G72" s="43"/>
-      <c r="H72" s="37"/>
+        <v>876</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G72" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>877</v>
+      </c>
       <c r="I72" s="37"/>
       <c r="J72" s="67"/>
       <c r="K72" s="31"/>
@@ -11958,18 +11968,20 @@
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="28"/>
       <c r="B73" s="50" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="C73" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E73" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F73" s="53"/>
+        <v>319</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>879</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>853</v>
+      </c>
       <c r="G73" s="43"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -11982,27 +11994,21 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="28"/>
-      <c r="B74" s="50" t="s">
-        <v>834</v>
+      <c r="B74" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E74" s="55" t="s">
-        <v>881</v>
-      </c>
-      <c r="F74" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G74" s="55" t="s">
-        <v>866</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>882</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E74" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="37"/>
       <c r="I74" s="37"/>
       <c r="J74" s="67"/>
       <c r="K74" s="31"/>
@@ -12014,22 +12020,26 @@
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="28"/>
       <c r="B75" s="50" t="s">
-        <v>883</v>
+        <v>834</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>884</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>859</v>
-      </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="37"/>
+        <v>880</v>
+      </c>
+      <c r="F75" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G75" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>881</v>
+      </c>
       <c r="I75" s="37"/>
       <c r="J75" s="67"/>
       <c r="K75" s="31"/>
@@ -12041,18 +12051,20 @@
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="28"/>
       <c r="B76" s="50" t="s">
-        <v>851</v>
+        <v>882</v>
       </c>
       <c r="C76" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E76" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F76" s="53"/>
+        <v>319</v>
+      </c>
+      <c r="E76" s="55" t="s">
+        <v>883</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>858</v>
+      </c>
       <c r="G76" s="43"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -12064,30 +12076,22 @@
       <c r="O76" s="31"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="28" t="s">
-        <v>885</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>886</v>
+      <c r="A77" s="28"/>
+      <c r="B77" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E77" s="55" t="s">
-        <v>887</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>888</v>
-      </c>
-      <c r="G77" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="H77" s="37" t="s">
-        <v>889</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E77" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F77" s="53"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="37"/>
       <c r="I77" s="37"/>
       <c r="J77" s="67"/>
       <c r="K77" s="31"/>
@@ -12096,48 +12100,48 @@
       <c r="N77" s="32"/>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="41" t="s">
+        <v>884</v>
+      </c>
       <c r="B78" s="50" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E78" s="55" t="s">
-        <v>891</v>
-      </c>
-      <c r="F78" s="46">
-        <v>2000</v>
-      </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="31"/>
+        <v>253</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>886</v>
+      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="58"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="70"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="58"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="28"/>
       <c r="B79" s="50" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E79" s="55" t="s">
-        <v>893</v>
-      </c>
-      <c r="F79" s="46">
-        <v>2000</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>886</v>
+      </c>
+      <c r="F79" s="55"/>
       <c r="G79" s="43"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
@@ -12148,53 +12152,49 @@
       <c r="N79" s="32"/>
       <c r="O79" s="31"/>
     </row>
-    <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="28"/>
-      <c r="B80" s="50" t="s">
-        <v>809</v>
+    <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A80" s="75"/>
+      <c r="B80" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C80" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E80" s="55" t="s">
-        <v>894</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>895</v>
-      </c>
-      <c r="G80" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="H80" s="37" t="s">
-        <v>896</v>
-      </c>
-      <c r="I80" s="37"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="31"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+        <v>540</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F80" s="76"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="69"/>
+      <c r="O80" s="58"/>
+    </row>
+    <row r="81" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="28"/>
-      <c r="B81" s="50" t="s">
-        <v>897</v>
+      <c r="B81" s="29" t="s">
+        <v>888</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="55" t="s">
-        <v>898</v>
-      </c>
-      <c r="F81" s="46"/>
-      <c r="G81" s="43"/>
+        <v>633</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>889</v>
+      </c>
+      <c r="F81" s="77" t="s">
+        <v>890</v>
+      </c>
+      <c r="G81" s="78"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="67"/>
@@ -12204,24 +12204,22 @@
       <c r="N81" s="32"/>
       <c r="O81" s="31"/>
     </row>
-    <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="82" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="28"/>
-      <c r="B82" s="50" t="s">
-        <v>899</v>
+      <c r="B82" s="35" t="s">
+        <v>891</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E82" s="55" t="s">
-        <v>816</v>
-      </c>
-      <c r="F82" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G82" s="43"/>
+        <v>536</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>892</v>
+      </c>
+      <c r="F82" s="77"/>
+      <c r="G82" s="78"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="67"/>
@@ -12231,22 +12229,24 @@
       <c r="N82" s="32"/>
       <c r="O82" s="31"/>
     </row>
-    <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="83" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="28"/>
-      <c r="B83" s="50" t="s">
-        <v>851</v>
+      <c r="B83" s="35" t="s">
+        <v>893</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E83" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F83" s="53"/>
-      <c r="G83" s="43"/>
+        <v>656</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>894</v>
+      </c>
+      <c r="F83" s="79" t="s">
+        <v>895</v>
+      </c>
+      <c r="G83" s="78"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="67"/>
@@ -12256,24 +12256,22 @@
       <c r="N83" s="32"/>
       <c r="O83" s="31"/>
     </row>
-    <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="28"/>
-      <c r="B84" s="50" t="s">
-        <v>892</v>
+    <row r="84" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="80"/>
+      <c r="B84" s="35" t="s">
+        <v>896</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E84" s="55" t="s">
-        <v>893</v>
-      </c>
-      <c r="F84" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G84" s="43"/>
+        <v>337</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>897</v>
+      </c>
+      <c r="F84" s="35"/>
+      <c r="G84" s="78"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="67"/>
@@ -12283,22 +12281,22 @@
       <c r="N84" s="32"/>
       <c r="O84" s="31"/>
     </row>
-    <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="28"/>
-      <c r="B85" s="50" t="s">
-        <v>851</v>
+    <row r="85" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="80"/>
+      <c r="B85" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E85" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F85" s="53"/>
-      <c r="G85" s="43"/>
+        <v>540</v>
+      </c>
+      <c r="E85" s="43">
+        <v>3000</v>
+      </c>
+      <c r="F85" s="35"/>
+      <c r="G85" s="78"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
       <c r="J85" s="67"/>
@@ -12308,24 +12306,24 @@
       <c r="N85" s="32"/>
       <c r="O85" s="31"/>
     </row>
-    <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="28"/>
-      <c r="B86" s="50" t="s">
-        <v>900</v>
+    <row r="86" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="81"/>
+      <c r="B86" s="35" t="s">
+        <v>898</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E86" s="55" t="s">
-        <v>819</v>
-      </c>
-      <c r="F86" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G86" s="43"/>
+        <v>349</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>899</v>
+      </c>
+      <c r="F86" s="77" t="s">
+        <v>897</v>
+      </c>
+      <c r="G86" s="78"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="67"/>
@@ -12335,29 +12333,27 @@
       <c r="N86" s="32"/>
       <c r="O86" s="31"/>
     </row>
-    <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="28"/>
-      <c r="B87" s="50" t="s">
+    <row r="87" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="81"/>
+      <c r="B87" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E87" s="43" t="s">
         <v>901</v>
       </c>
-      <c r="C87" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E87" s="55" t="s">
+      <c r="F87" s="77" t="s">
         <v>902</v>
       </c>
-      <c r="F87" s="46" t="s">
-        <v>895</v>
-      </c>
-      <c r="G87" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="H87" s="37" t="s">
+      <c r="G87" s="78" t="s">
         <v>903</v>
       </c>
+      <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="67"/>
       <c r="K87" s="31"/>
@@ -12366,23 +12362,29 @@
       <c r="N87" s="32"/>
       <c r="O87" s="31"/>
     </row>
-    <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="28"/>
-      <c r="B88" s="50" t="s">
+    <row r="88" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A88" s="81"/>
+      <c r="B88" s="35" t="s">
         <v>904</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D88" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="43" t="s">
         <v>905</v>
       </c>
-      <c r="F88" s="46"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="37"/>
+      <c r="F88" s="43" t="s">
+        <v>901</v>
+      </c>
+      <c r="G88" s="78" t="s">
+        <v>903</v>
+      </c>
+      <c r="H88" s="37" t="s">
+        <v>906</v>
+      </c>
       <c r="I88" s="37"/>
       <c r="J88" s="67"/>
       <c r="K88" s="31"/>
@@ -12391,23 +12393,24 @@
       <c r="N88" s="32"/>
       <c r="O88" s="31"/>
     </row>
-    <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A89" s="28"/>
-      <c r="B89" s="50" t="s">
-        <v>906</v>
+    <row r="89" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="81"/>
+      <c r="B89" s="35" t="s">
+        <v>907</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="E89" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F89" s="46">
-        <v>5000</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>908</v>
+      </c>
+      <c r="F89" s="77" t="s">
+        <v>775</v>
+      </c>
+      <c r="G89" s="78"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="67"/>
@@ -12419,24 +12422,29 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A90" s="28" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E90" s="55" t="s">
-        <v>909</v>
-      </c>
-      <c r="F90" s="46">
-        <v>5000</v>
-      </c>
-      <c r="H90" s="37"/>
+        <v>911</v>
+      </c>
+      <c r="F90" s="55" t="s">
+        <v>912</v>
+      </c>
+      <c r="G90" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H90" s="37" t="s">
+        <v>913</v>
+      </c>
       <c r="I90" s="37"/>
       <c r="J90" s="67"/>
       <c r="K90" s="31"/>
@@ -12445,25 +12453,21 @@
       <c r="N90" s="32"/>
       <c r="O90" s="31"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A91" s="28"/>
+    <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B91" s="50" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C91" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>102</v>
+        <v>576</v>
       </c>
       <c r="E91" s="55" t="s">
-        <v>893</v>
-      </c>
-      <c r="F91" s="46" t="s">
-        <v>911</v>
-      </c>
-      <c r="G91" s="46" t="s">
-        <v>912</v>
+        <v>915</v>
+      </c>
+      <c r="F91" s="46">
+        <v>2000</v>
       </c>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
@@ -12474,22 +12478,20 @@
       <c r="N91" s="32"/>
       <c r="O91" s="31"/>
     </row>
-    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="41" t="s">
-        <v>913</v>
-      </c>
-      <c r="B92" s="50" t="s">
-        <v>822</v>
-      </c>
-      <c r="C92" s="36" t="s">
+    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B92" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="C92" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D92" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="E92" s="55"/>
+      <c r="D92" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="E92" s="55">
+        <v>5000</v>
+      </c>
       <c r="F92" s="46"/>
-      <c r="G92" s="46"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="67"/>
@@ -12499,47 +12501,56 @@
       <c r="N92" s="32"/>
       <c r="O92" s="31"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="93" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A93" s="28"/>
       <c r="B93" s="50" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="C93" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D93" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E93" s="43" t="s">
-        <v>915</v>
-      </c>
-      <c r="F93" s="37"/>
+        <v>576</v>
+      </c>
+      <c r="E93" s="55" t="s">
+        <v>917</v>
+      </c>
+      <c r="F93" s="46">
+        <v>2000</v>
+      </c>
       <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="69"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="58"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="67"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="31"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="28"/>
       <c r="B94" s="50" t="s">
-        <v>916</v>
+        <v>809</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="E94" s="43" t="s">
-        <v>915</v>
-      </c>
-      <c r="F94" s="55"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E94" s="55" t="s">
+        <v>918</v>
+      </c>
+      <c r="F94" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="G94" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H94" s="37" t="s">
+        <v>920</v>
+      </c>
       <c r="I94" s="37"/>
       <c r="J94" s="67"/>
       <c r="K94" s="31"/>
@@ -12548,49 +12559,49 @@
       <c r="N94" s="32"/>
       <c r="O94" s="31"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A95" s="75"/>
-      <c r="B95" s="35" t="s">
-        <v>917</v>
+    <row r="95" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A95" s="28"/>
+      <c r="B95" s="50" t="s">
+        <v>921</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D95" s="43" t="s">
-        <v>540</v>
-      </c>
-      <c r="E95" s="43" t="s">
-        <v>764</v>
-      </c>
-      <c r="F95" s="76"/>
+        <v>253</v>
+      </c>
+      <c r="E95" s="55" t="s">
+        <v>922</v>
+      </c>
+      <c r="F95" s="46"/>
       <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="58"/>
-      <c r="L95" s="69"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="69"/>
-      <c r="O95" s="58"/>
-    </row>
-    <row r="96" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="31"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="28"/>
-      <c r="B96" s="29" t="s">
-        <v>918</v>
+      <c r="B96" s="50" t="s">
+        <v>923</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>919</v>
-      </c>
-      <c r="F96" s="77" t="s">
-        <v>920</v>
-      </c>
-      <c r="G96" s="78"/>
+        <v>576</v>
+      </c>
+      <c r="E96" s="55" t="s">
+        <v>816</v>
+      </c>
+      <c r="F96" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G96" s="43"/>
       <c r="H96" s="37"/>
       <c r="I96" s="37"/>
       <c r="J96" s="67"/>
@@ -12600,22 +12611,22 @@
       <c r="N96" s="32"/>
       <c r="O96" s="31"/>
     </row>
-    <row r="97" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="97" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="28"/>
       <c r="B97" s="35" t="s">
-        <v>921</v>
+        <v>763</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>536</v>
-      </c>
-      <c r="E97" s="43" t="s">
-        <v>922</v>
-      </c>
-      <c r="F97" s="77"/>
-      <c r="G97" s="78"/>
+        <v>714</v>
+      </c>
+      <c r="E97" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F97" s="53"/>
+      <c r="G97" s="43"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
       <c r="J97" s="67"/>
@@ -12625,24 +12636,24 @@
       <c r="N97" s="32"/>
       <c r="O97" s="31"/>
     </row>
-    <row r="98" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="98" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="28"/>
-      <c r="B98" s="35" t="s">
-        <v>923</v>
+      <c r="B98" s="50" t="s">
+        <v>916</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D98" s="43" t="s">
-        <v>656</v>
-      </c>
-      <c r="E98" s="43" t="s">
-        <v>924</v>
-      </c>
-      <c r="F98" s="79" t="s">
-        <v>925</v>
-      </c>
-      <c r="G98" s="78"/>
+        <v>576</v>
+      </c>
+      <c r="E98" s="55" t="s">
+        <v>917</v>
+      </c>
+      <c r="F98" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G98" s="43"/>
       <c r="H98" s="37"/>
       <c r="I98" s="37"/>
       <c r="J98" s="67"/>
@@ -12652,22 +12663,22 @@
       <c r="N98" s="32"/>
       <c r="O98" s="31"/>
     </row>
-    <row r="99" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="80"/>
+    <row r="99" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="28"/>
       <c r="B99" s="35" t="s">
-        <v>926</v>
+        <v>763</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D99" s="43" t="s">
-        <v>337</v>
-      </c>
-      <c r="E99" s="43" t="s">
-        <v>927</v>
-      </c>
-      <c r="F99" s="35"/>
-      <c r="G99" s="78"/>
+        <v>714</v>
+      </c>
+      <c r="E99" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F99" s="53"/>
+      <c r="G99" s="43"/>
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
       <c r="J99" s="67"/>
@@ -12677,22 +12688,24 @@
       <c r="N99" s="32"/>
       <c r="O99" s="31"/>
     </row>
-    <row r="100" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="80"/>
-      <c r="B100" s="35" t="s">
-        <v>763</v>
+    <row r="100" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="28"/>
+      <c r="B100" s="50" t="s">
+        <v>924</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D100" s="43" t="s">
-        <v>540</v>
-      </c>
-      <c r="E100" s="43">
-        <v>3000</v>
-      </c>
-      <c r="F100" s="35"/>
-      <c r="G100" s="78"/>
+        <v>576</v>
+      </c>
+      <c r="E100" s="55" t="s">
+        <v>819</v>
+      </c>
+      <c r="F100" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G100" s="43"/>
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="67"/>
@@ -12702,25 +12715,29 @@
       <c r="N100" s="32"/>
       <c r="O100" s="31"/>
     </row>
-    <row r="101" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A101" s="81"/>
-      <c r="B101" s="35" t="s">
-        <v>928</v>
+    <row r="101" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="28"/>
+      <c r="B101" s="50" t="s">
+        <v>925</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D101" s="43" t="s">
-        <v>349</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>929</v>
-      </c>
-      <c r="F101" s="77" t="s">
+        <v>486</v>
+      </c>
+      <c r="E101" s="55" t="s">
+        <v>926</v>
+      </c>
+      <c r="F101" s="46" t="s">
+        <v>919</v>
+      </c>
+      <c r="G101" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H101" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="G101" s="78"/>
-      <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="67"/>
       <c r="K101" s="31"/>
@@ -12729,24 +12746,22 @@
       <c r="N101" s="32"/>
       <c r="O101" s="31"/>
     </row>
-    <row r="102" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="81"/>
-      <c r="B102" s="35" t="s">
-        <v>930</v>
+    <row r="102" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="28"/>
+      <c r="B102" s="50" t="s">
+        <v>928</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D102" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="E102" s="43" t="s">
-        <v>931</v>
-      </c>
-      <c r="F102" s="77" t="s">
-        <v>932</v>
-      </c>
-      <c r="G102" s="78"/>
+        <v>253</v>
+      </c>
+      <c r="E102" s="55" t="s">
+        <v>929</v>
+      </c>
+      <c r="F102" s="46"/>
+      <c r="G102" s="43"/>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
       <c r="J102" s="67"/>
@@ -12757,25 +12772,22 @@
       <c r="O102" s="31"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="28" t="s">
-        <v>933</v>
-      </c>
-      <c r="B103" s="29" t="s">
-        <v>934</v>
+      <c r="A103" s="28"/>
+      <c r="B103" s="50" t="s">
+        <v>930</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D103" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="E103" s="43" t="s">
-        <v>927</v>
-      </c>
-      <c r="F103" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G103" s="43"/>
+        <v>366</v>
+      </c>
+      <c r="E103" s="55" t="s">
+        <v>841</v>
+      </c>
+      <c r="F103" s="46">
+        <v>5000</v>
+      </c>
       <c r="H103" s="37"/>
       <c r="I103" s="37"/>
       <c r="J103" s="67"/>
@@ -12786,11 +12798,24 @@
       <c r="O103" s="31"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="28"/>
-      <c r="B104" s="50"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="43"/>
+      <c r="A104" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="E104" s="55" t="s">
+        <v>933</v>
+      </c>
+      <c r="F104" s="46">
+        <v>5000</v>
+      </c>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
       <c r="J104" s="67"/>
@@ -12800,64 +12825,86 @@
       <c r="N104" s="32"/>
       <c r="O104" s="31"/>
     </row>
-    <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A105" s="41"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="58"/>
-      <c r="L105" s="69"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="69"/>
-      <c r="O105" s="58"/>
-    </row>
-    <row r="106" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A106" s="41"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
+    <row r="105" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A105" s="28"/>
+      <c r="B105" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="55" t="s">
+        <v>917</v>
+      </c>
+      <c r="F105" s="46" t="s">
+        <v>935</v>
+      </c>
+      <c r="G105" s="46" t="s">
+        <v>936</v>
+      </c>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="31"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A106" s="28" t="s">
+        <v>937</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>897</v>
+      </c>
+      <c r="F106" s="55" t="b">
+        <v>1</v>
+      </c>
       <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="58"/>
-      <c r="L106" s="69"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="69"/>
-      <c r="O106" s="58"/>
-    </row>
-    <row r="107" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A107" s="41"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="31"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="30"/>
+      <c r="N106" s="32"/>
+      <c r="O106" s="31"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A107" s="28"/>
       <c r="B107" s="50"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
       <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="58"/>
-      <c r="L107" s="69"/>
-      <c r="M107" s="70"/>
-      <c r="N107" s="69"/>
-      <c r="O107" s="58"/>
-    </row>
-    <row r="108" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="31"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A108" s="41"/>
       <c r="B108" s="50"/>
       <c r="C108" s="42"/>
       <c r="D108" s="43"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
       <c r="G108" s="43"/>
       <c r="H108" s="43"/>
       <c r="I108" s="43"/>
@@ -12868,13 +12915,13 @@
       <c r="N108" s="69"/>
       <c r="O108" s="58"/>
     </row>
-    <row r="109" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="41"/>
       <c r="B109" s="50"/>
       <c r="C109" s="42"/>
       <c r="D109" s="43"/>
       <c r="E109" s="43"/>
-      <c r="F109" s="37"/>
+      <c r="F109" s="43"/>
       <c r="G109" s="43"/>
       <c r="H109" s="43"/>
       <c r="I109" s="43"/>
@@ -12890,8 +12937,8 @@
       <c r="B110" s="50"/>
       <c r="C110" s="42"/>
       <c r="D110" s="43"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
       <c r="G110" s="43"/>
       <c r="H110" s="43"/>
       <c r="I110" s="43"/>
@@ -12907,7 +12954,7 @@
       <c r="B111" s="50"/>
       <c r="C111" s="42"/>
       <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
+      <c r="E111" s="37"/>
       <c r="F111" s="37"/>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
@@ -12919,30 +12966,30 @@
       <c r="N111" s="69"/>
       <c r="O111" s="58"/>
     </row>
-    <row r="112" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A112" s="28"/>
+    <row r="112" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A112" s="41"/>
       <c r="B112" s="50"/>
       <c r="C112" s="42"/>
       <c r="D112" s="43"/>
-      <c r="E112" s="40"/>
+      <c r="E112" s="43"/>
       <c r="F112" s="37"/>
       <c r="G112" s="43"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="67"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="32"/>
-      <c r="M112" s="30"/>
-      <c r="N112" s="32"/>
-      <c r="O112" s="31"/>
-    </row>
-    <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H112" s="43"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="68"/>
+      <c r="K112" s="58"/>
+      <c r="L112" s="69"/>
+      <c r="M112" s="70"/>
+      <c r="N112" s="69"/>
+      <c r="O112" s="58"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A113" s="41"/>
       <c r="B113" s="50"/>
       <c r="C113" s="42"/>
       <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
       <c r="G113" s="43"/>
       <c r="H113" s="43"/>
       <c r="I113" s="43"/>
@@ -12953,13 +13000,13 @@
       <c r="N113" s="69"/>
       <c r="O113" s="58"/>
     </row>
-    <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="114" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A114" s="41"/>
       <c r="B114" s="50"/>
       <c r="C114" s="42"/>
       <c r="D114" s="43"/>
       <c r="E114" s="43"/>
-      <c r="F114" s="82"/>
+      <c r="F114" s="37"/>
       <c r="G114" s="43"/>
       <c r="H114" s="43"/>
       <c r="I114" s="43"/>
@@ -12970,30 +13017,30 @@
       <c r="N114" s="69"/>
       <c r="O114" s="58"/>
     </row>
-    <row r="115" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A115" s="41"/>
+    <row r="115" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A115" s="28"/>
       <c r="B115" s="50"/>
       <c r="C115" s="42"/>
       <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="82"/>
+      <c r="E115" s="40"/>
+      <c r="F115" s="37"/>
       <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="58"/>
-      <c r="L115" s="69"/>
-      <c r="M115" s="70"/>
-      <c r="N115" s="69"/>
-      <c r="O115" s="58"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="67"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="30"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="31"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A116" s="41"/>
       <c r="B116" s="50"/>
       <c r="C116" s="42"/>
       <c r="D116" s="43"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="46"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
       <c r="G116" s="43"/>
       <c r="H116" s="43"/>
       <c r="I116" s="43"/>
@@ -13009,8 +13056,8 @@
       <c r="B117" s="50"/>
       <c r="C117" s="42"/>
       <c r="D117" s="43"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="46"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="82"/>
       <c r="G117" s="43"/>
       <c r="H117" s="43"/>
       <c r="I117" s="43"/>
@@ -13027,7 +13074,7 @@
       <c r="C118" s="42"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
-      <c r="F118" s="37"/>
+      <c r="F118" s="82"/>
       <c r="G118" s="43"/>
       <c r="H118" s="43"/>
       <c r="I118" s="43"/>
@@ -13043,8 +13090,8 @@
       <c r="B119" s="50"/>
       <c r="C119" s="42"/>
       <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="46"/>
       <c r="G119" s="43"/>
       <c r="H119" s="43"/>
       <c r="I119" s="43"/>
@@ -13060,8 +13107,8 @@
       <c r="B120" s="50"/>
       <c r="C120" s="42"/>
       <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="46"/>
       <c r="G120" s="43"/>
       <c r="H120" s="43"/>
       <c r="I120" s="43"/>
@@ -13072,7 +13119,7 @@
       <c r="N120" s="69"/>
       <c r="O120" s="58"/>
     </row>
-    <row r="121" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="41"/>
       <c r="B121" s="50"/>
       <c r="C121" s="42"/>
@@ -13089,13 +13136,13 @@
       <c r="N121" s="69"/>
       <c r="O121" s="58"/>
     </row>
-    <row r="122" s="1" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="122" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A122" s="41"/>
       <c r="B122" s="50"/>
       <c r="C122" s="42"/>
       <c r="D122" s="43"/>
       <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
+      <c r="F122" s="37"/>
       <c r="G122" s="43"/>
       <c r="H122" s="43"/>
       <c r="I122" s="43"/>
@@ -13112,7 +13159,7 @@
       <c r="C123" s="42"/>
       <c r="D123" s="43"/>
       <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
+      <c r="F123" s="37"/>
       <c r="G123" s="43"/>
       <c r="H123" s="43"/>
       <c r="I123" s="43"/>
@@ -13123,13 +13170,13 @@
       <c r="N123" s="69"/>
       <c r="O123" s="58"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="124" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A124" s="41"/>
       <c r="B124" s="50"/>
       <c r="C124" s="42"/>
       <c r="D124" s="43"/>
       <c r="E124" s="43"/>
-      <c r="F124" s="82"/>
+      <c r="F124" s="37"/>
       <c r="G124" s="43"/>
       <c r="H124" s="43"/>
       <c r="I124" s="43"/>
@@ -13140,13 +13187,13 @@
       <c r="N124" s="69"/>
       <c r="O124" s="58"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="125" s="1" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A125" s="41"/>
       <c r="B125" s="50"/>
       <c r="C125" s="42"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
-      <c r="F125" s="82"/>
+      <c r="F125" s="43"/>
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
       <c r="I125" s="43"/>
@@ -13163,7 +13210,7 @@
       <c r="C126" s="42"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
-      <c r="F126" s="82"/>
+      <c r="F126" s="43"/>
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
       <c r="I126" s="43"/>
@@ -13231,7 +13278,7 @@
       <c r="C130" s="42"/>
       <c r="D130" s="43"/>
       <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
+      <c r="F130" s="82"/>
       <c r="G130" s="43"/>
       <c r="H130" s="43"/>
       <c r="I130" s="43"/>
@@ -13248,7 +13295,7 @@
       <c r="C131" s="42"/>
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
-      <c r="F131" s="68"/>
+      <c r="F131" s="82"/>
       <c r="G131" s="43"/>
       <c r="H131" s="43"/>
       <c r="I131" s="43"/>
@@ -13265,7 +13312,7 @@
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
       <c r="E132" s="43"/>
-      <c r="F132" s="44"/>
+      <c r="F132" s="82"/>
       <c r="G132" s="43"/>
       <c r="H132" s="43"/>
       <c r="I132" s="43"/>
@@ -13299,7 +13346,7 @@
       <c r="C134" s="42"/>
       <c r="D134" s="43"/>
       <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
+      <c r="F134" s="68"/>
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
       <c r="I134" s="43"/>
@@ -13316,7 +13363,7 @@
       <c r="C135" s="42"/>
       <c r="D135" s="43"/>
       <c r="E135" s="43"/>
-      <c r="F135" s="68"/>
+      <c r="F135" s="44"/>
       <c r="G135" s="43"/>
       <c r="H135" s="43"/>
       <c r="I135" s="43"/>
@@ -13361,13 +13408,13 @@
       <c r="N137" s="69"/>
       <c r="O137" s="58"/>
     </row>
-    <row r="138" s="1" customFormat="1" spans="1:15">
+    <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A138" s="41"/>
       <c r="B138" s="50"/>
       <c r="C138" s="42"/>
       <c r="D138" s="43"/>
       <c r="E138" s="43"/>
-      <c r="F138" s="37"/>
+      <c r="F138" s="68"/>
       <c r="G138" s="43"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -13378,13 +13425,13 @@
       <c r="N138" s="69"/>
       <c r="O138" s="58"/>
     </row>
-    <row r="139" s="1" customFormat="1" spans="1:15">
+    <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A139" s="41"/>
       <c r="B139" s="50"/>
       <c r="C139" s="42"/>
       <c r="D139" s="43"/>
       <c r="E139" s="43"/>
-      <c r="F139" s="37"/>
+      <c r="F139" s="43"/>
       <c r="G139" s="43"/>
       <c r="H139" s="43"/>
       <c r="I139" s="43"/>
@@ -13395,13 +13442,13 @@
       <c r="N139" s="69"/>
       <c r="O139" s="58"/>
     </row>
-    <row r="140" s="1" customFormat="1" spans="1:15">
+    <row r="140" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A140" s="41"/>
       <c r="B140" s="50"/>
       <c r="C140" s="42"/>
       <c r="D140" s="43"/>
       <c r="E140" s="43"/>
-      <c r="F140" s="37"/>
+      <c r="F140" s="43"/>
       <c r="G140" s="43"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
@@ -13415,8 +13462,8 @@
     <row r="141" s="1" customFormat="1" spans="1:15">
       <c r="A141" s="41"/>
       <c r="B141" s="50"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="43"/>
       <c r="E141" s="43"/>
       <c r="F141" s="37"/>
       <c r="G141" s="43"/>
@@ -13435,7 +13482,7 @@
       <c r="C142" s="42"/>
       <c r="D142" s="43"/>
       <c r="E142" s="43"/>
-      <c r="F142" s="44"/>
+      <c r="F142" s="37"/>
       <c r="G142" s="43"/>
       <c r="H142" s="43"/>
       <c r="I142" s="43"/>
@@ -13452,7 +13499,7 @@
       <c r="C143" s="42"/>
       <c r="D143" s="43"/>
       <c r="E143" s="43"/>
-      <c r="F143" s="43"/>
+      <c r="F143" s="37"/>
       <c r="G143" s="43"/>
       <c r="H143" s="43"/>
       <c r="I143" s="43"/>
@@ -13466,10 +13513,10 @@
     <row r="144" s="1" customFormat="1" spans="1:15">
       <c r="A144" s="41"/>
       <c r="B144" s="50"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
+      <c r="C144" s="36"/>
+      <c r="D144" s="37"/>
       <c r="E144" s="43"/>
-      <c r="F144" s="43"/>
+      <c r="F144" s="37"/>
       <c r="G144" s="43"/>
       <c r="H144" s="43"/>
       <c r="I144" s="43"/>
@@ -13480,13 +13527,13 @@
       <c r="N144" s="69"/>
       <c r="O144" s="58"/>
     </row>
-    <row r="145" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="145" s="1" customFormat="1" spans="1:15">
       <c r="A145" s="41"/>
       <c r="B145" s="50"/>
       <c r="C145" s="42"/>
       <c r="D145" s="43"/>
       <c r="E145" s="43"/>
-      <c r="F145" s="68"/>
+      <c r="F145" s="44"/>
       <c r="G145" s="43"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
@@ -13497,13 +13544,13 @@
       <c r="N145" s="69"/>
       <c r="O145" s="58"/>
     </row>
-    <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="146" s="1" customFormat="1" spans="1:15">
       <c r="A146" s="41"/>
       <c r="B146" s="50"/>
       <c r="C146" s="42"/>
       <c r="D146" s="43"/>
       <c r="E146" s="43"/>
-      <c r="F146" s="68"/>
+      <c r="F146" s="43"/>
       <c r="G146" s="43"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
@@ -13520,7 +13567,7 @@
       <c r="C147" s="42"/>
       <c r="D147" s="43"/>
       <c r="E147" s="43"/>
-      <c r="F147" s="37"/>
+      <c r="F147" s="43"/>
       <c r="G147" s="43"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
@@ -13531,13 +13578,13 @@
       <c r="N147" s="69"/>
       <c r="O147" s="58"/>
     </row>
-    <row r="148" s="1" customFormat="1" spans="1:15">
+    <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A148" s="41"/>
       <c r="B148" s="50"/>
       <c r="C148" s="42"/>
       <c r="D148" s="43"/>
       <c r="E148" s="43"/>
-      <c r="F148" s="37"/>
+      <c r="F148" s="68"/>
       <c r="G148" s="43"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
@@ -13548,13 +13595,13 @@
       <c r="N148" s="69"/>
       <c r="O148" s="58"/>
     </row>
-    <row r="149" s="1" customFormat="1" spans="1:15">
+    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A149" s="41"/>
       <c r="B149" s="50"/>
       <c r="C149" s="42"/>
       <c r="D149" s="43"/>
       <c r="E149" s="43"/>
-      <c r="F149" s="37"/>
+      <c r="F149" s="68"/>
       <c r="G149" s="43"/>
       <c r="H149" s="43"/>
       <c r="I149" s="43"/>
@@ -13565,7 +13612,7 @@
       <c r="N149" s="69"/>
       <c r="O149" s="58"/>
     </row>
-    <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="150" s="1" customFormat="1" spans="1:15">
       <c r="A150" s="41"/>
       <c r="B150" s="50"/>
       <c r="C150" s="42"/>
@@ -13582,7 +13629,7 @@
       <c r="N150" s="69"/>
       <c r="O150" s="58"/>
     </row>
-    <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="151" s="1" customFormat="1" spans="1:15">
       <c r="A151" s="41"/>
       <c r="B151" s="50"/>
       <c r="C151" s="42"/>
@@ -13599,13 +13646,13 @@
       <c r="N151" s="69"/>
       <c r="O151" s="58"/>
     </row>
-    <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="152" s="1" customFormat="1" spans="1:15">
       <c r="A152" s="41"/>
       <c r="B152" s="50"/>
       <c r="C152" s="42"/>
       <c r="D152" s="43"/>
       <c r="E152" s="43"/>
-      <c r="F152" s="43"/>
+      <c r="F152" s="37"/>
       <c r="G152" s="43"/>
       <c r="H152" s="43"/>
       <c r="I152" s="43"/>
@@ -13619,9 +13666,9 @@
     <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A153" s="41"/>
       <c r="B153" s="50"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
       <c r="F153" s="37"/>
       <c r="G153" s="43"/>
       <c r="H153" s="43"/>
@@ -13633,56 +13680,56 @@
       <c r="N153" s="69"/>
       <c r="O153" s="58"/>
     </row>
-    <row r="154" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="83"/>
-      <c r="B154" s="84"/>
-      <c r="C154" s="85"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="47"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
-      <c r="I154" s="47"/>
-      <c r="J154" s="86"/>
-      <c r="K154" s="87"/>
-      <c r="L154" s="88"/>
-      <c r="M154" s="89"/>
-      <c r="N154" s="88"/>
-      <c r="O154" s="87"/>
-    </row>
-    <row r="155" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="83"/>
-      <c r="B155" s="84"/>
-      <c r="C155" s="85"/>
-      <c r="D155" s="47"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
-      <c r="I155" s="47"/>
-      <c r="J155" s="86"/>
-      <c r="K155" s="87"/>
-      <c r="L155" s="88"/>
-      <c r="M155" s="89"/>
-      <c r="N155" s="88"/>
-      <c r="O155" s="87"/>
-    </row>
-    <row r="156" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="83"/>
-      <c r="B156" s="84"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="47"/>
-      <c r="E156" s="47"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="47"/>
-      <c r="J156" s="86"/>
-      <c r="K156" s="87"/>
-      <c r="L156" s="88"/>
-      <c r="M156" s="89"/>
-      <c r="N156" s="88"/>
-      <c r="O156" s="87"/>
+    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="41"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="68"/>
+      <c r="K154" s="58"/>
+      <c r="L154" s="69"/>
+      <c r="M154" s="70"/>
+      <c r="N154" s="69"/>
+      <c r="O154" s="58"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="41"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="68"/>
+      <c r="K155" s="58"/>
+      <c r="L155" s="69"/>
+      <c r="M155" s="70"/>
+      <c r="N155" s="69"/>
+      <c r="O155" s="58"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="41"/>
+      <c r="B156" s="50"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43"/>
+      <c r="I156" s="43"/>
+      <c r="J156" s="68"/>
+      <c r="K156" s="58"/>
+      <c r="L156" s="69"/>
+      <c r="M156" s="70"/>
+      <c r="N156" s="69"/>
+      <c r="O156" s="58"/>
     </row>
     <row r="157" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A157" s="83"/>
@@ -13718,56 +13765,56 @@
       <c r="N158" s="88"/>
       <c r="O158" s="87"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="41"/>
-      <c r="B159" s="50"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="43"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="68"/>
-      <c r="K159" s="58"/>
-      <c r="L159" s="69"/>
-      <c r="M159" s="70"/>
-      <c r="N159" s="69"/>
-      <c r="O159" s="58"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="41"/>
-      <c r="B160" s="50"/>
-      <c r="C160" s="42"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
-      <c r="I160" s="43"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="58"/>
-      <c r="L160" s="69"/>
-      <c r="M160" s="70"/>
-      <c r="N160" s="69"/>
-      <c r="O160" s="58"/>
-    </row>
-    <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="41"/>
-      <c r="B161" s="50"/>
-      <c r="C161" s="42"/>
-      <c r="D161" s="43"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="68"/>
-      <c r="K161" s="58"/>
-      <c r="L161" s="69"/>
-      <c r="M161" s="70"/>
-      <c r="N161" s="69"/>
-      <c r="O161" s="58"/>
+    <row r="159" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A159" s="83"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47"/>
+      <c r="I159" s="47"/>
+      <c r="J159" s="86"/>
+      <c r="K159" s="87"/>
+      <c r="L159" s="88"/>
+      <c r="M159" s="89"/>
+      <c r="N159" s="88"/>
+      <c r="O159" s="87"/>
+    </row>
+    <row r="160" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="83"/>
+      <c r="B160" s="84"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47"/>
+      <c r="I160" s="47"/>
+      <c r="J160" s="86"/>
+      <c r="K160" s="87"/>
+      <c r="L160" s="88"/>
+      <c r="M160" s="89"/>
+      <c r="N160" s="88"/>
+      <c r="O160" s="87"/>
+    </row>
+    <row r="161" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="83"/>
+      <c r="B161" s="84"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47"/>
+      <c r="I161" s="47"/>
+      <c r="J161" s="86"/>
+      <c r="K161" s="87"/>
+      <c r="L161" s="88"/>
+      <c r="M161" s="89"/>
+      <c r="N161" s="88"/>
+      <c r="O161" s="87"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A162" s="41"/>
@@ -14041,6 +14088,57 @@
       <c r="N177" s="69"/>
       <c r="O177" s="58"/>
     </row>
+    <row r="178" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="41"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
+      <c r="I178" s="43"/>
+      <c r="J178" s="68"/>
+      <c r="K178" s="58"/>
+      <c r="L178" s="69"/>
+      <c r="M178" s="70"/>
+      <c r="N178" s="69"/>
+      <c r="O178" s="58"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A179" s="41"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
+      <c r="J179" s="68"/>
+      <c r="K179" s="58"/>
+      <c r="L179" s="69"/>
+      <c r="M179" s="70"/>
+      <c r="N179" s="69"/>
+      <c r="O179" s="58"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="41"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
+      <c r="F180" s="43"/>
+      <c r="G180" s="43"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
+      <c r="J180" s="68"/>
+      <c r="K180" s="58"/>
+      <c r="L180" s="69"/>
+      <c r="M180" s="70"/>
+      <c r="N180" s="69"/>
+      <c r="O180" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -14049,637 +14147,648 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="229" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="230" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="231" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="216" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="108" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N48">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N57">
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N58">
+    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62">
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N63">
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66">
-    <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N67">
-    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68">
-    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69">
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="112" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="116" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70">
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="119" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="2" priority="107" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="111" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="115" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="110" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="114" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
-    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77">
+    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N78">
+    <cfRule type="beginsWith" dxfId="2" priority="148" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="150" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N79">
+    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
     <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N83">
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N90">
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N90,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N90,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N90,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
-    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N85,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N85,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N85,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N93">
-    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N93,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="146" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N93,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N93,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N94">
-    <cfRule type="beginsWith" dxfId="2" priority="163" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N94,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="164" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N94,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="165" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N94,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N95">
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N95,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N95,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N95,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N97">
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N98">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103">
-    <cfRule type="beginsWith" dxfId="2" priority="151" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="152" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="153" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N99">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N104">
+  <conditionalFormatting sqref="N106">
     <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N106,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N106,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="156" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N106,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N112">
-    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N112,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N112,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N112,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N107">
+    <cfRule type="beginsWith" dxfId="2" priority="157" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N107,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="158" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N107,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="159" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N107,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N135">
-    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N135,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N135,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N135,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N115">
+    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N115,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N115,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N115,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N138">
+    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N138,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N138,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N138,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N7">
-    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N27">
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47:N49">
+  <conditionalFormatting sqref="N64:N65">
     <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N63:N64">
-    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N81:N82">
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86:N88">
-    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N84:N89">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89:N92">
-    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N89,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N89,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N89,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N100:N102">
+    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N96:N97">
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N96,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N96,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N96,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N103:N105">
+    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N99:N102">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N127:N128">
+    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N127,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N127,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N127,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N124:N125">
+  <conditionalFormatting sqref="N129:N130">
     <cfRule type="beginsWith" dxfId="2" priority="181" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N124,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N129,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="182" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N124,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N129,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="183" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N124,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N129,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N126:N127">
+  <conditionalFormatting sqref="N131:N135">
     <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N126,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N131,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N126,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N131,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N126,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N131,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N128:N132">
-    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N128,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N128,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N128,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N147:N149">
-    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N147,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N147,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N147,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N150:N152">
+    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 N10:N11">
-    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N22 N32 N39:N41 N34:N35">
-    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="163" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="164" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="162" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="165" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N24 N29:N31">
-    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42:N46 N50:N52">
-    <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N42:N46 N51:N53">
+    <cfRule type="beginsWith" dxfId="2" priority="139" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="138" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="141" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N56 N78:N82 N75 N58:N60">
-    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N47 N49:N50">
+    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N105:N111 N138:N146 N150:N177 N113:N123">
-    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N55:N57 N91:N96 N59:N61 N76">
+    <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133:N134 N136:N137">
-    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N108:N114 N116:N126 N153:N180 N141:N149">
+    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N108,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N108,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N108,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N136:N137 N139:N140">
+    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N136,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N136,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N136,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C18 C19 C22 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C83 C84 C85 C86 C87 C88 C89 C92 C95 C96 C97 C98 C99 C100 C101 C102 C103 C116 C117 C118 C125 C128 C131 C132 C135 C136 C137 C138 C141 C142 C143 C144 C147 C150 C151 C152 C153 C15:C17 C20:C21 C23:C24 C81:C82 C90:C91 C93:C94 C105:C106 C107:C115 C119:C124 C126:C127 C129:C130 C133:C134 C139:C140 C145:C146 C148:C149 C154:C177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C18 C19 C22 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C97 C98 C99 C100 C101 C102 C103 C106 C119 C120 C121 C128 C131 C134 C135 C138 C139 C140 C141 C144 C145 C146 C147 C150 C153 C154 C155 C156 C15:C17 C20:C21 C23:C24 C78:C79 C95:C96 C104:C105 C108:C109 C110:C118 C122:C127 C129:C130 C132:C133 C136:C137 C142:C143 C148:C149 C151:C152 C157:C180">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D18 D19 D22 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D95 D96 D97 D98 D99 D100 D101 D102 D103 D116 D117 D118 D125 D128 D131 D132 D135 D136 D137 D138 D141 D142 D143 D144 D147 D150 D151 D152 D153 D15:D17 D20:D21 D23:D24 D105:D106 D107:D115 D119:D124 D126:D127 D129:D130 D133:D134 D139:D140 D145:D146 D148:D149 D154:D177">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D18 D19 D22 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D119 D120 D121 D128 D131 D134 D135 D138 D139 D140 D141 D144 D145 D146 D147 D150 D153 D154 D155 D156 D15:D17 D20:D21 D23:D24 D108:D109 D110:D118 D122:D127 D129:D130 D132:D133 D136:D137 D142:D143 D148:D149 D151:D152 D157:D180">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-Godown.xlsx
+++ b/tests/artifact/script/Mobile-Godown.xlsx
@@ -9987,8 +9987,8 @@
   <sheetPr/>
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A48" sqref="$A48:$XFD48"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11186,7 +11186,7 @@
         <v>465</v>
       </c>
       <c r="E44" s="56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="55">
         <v>-1</v>

--- a/tests/artifact/script/Mobile-Godown.xlsx
+++ b/tests/artifact/script/Mobile-Godown.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="940">
   <si>
     <t>target</t>
   </si>
@@ -2588,28 +2588,31 @@
     <t>Assert if the element is present or not</t>
   </si>
   <si>
+    <t>GodownPresent</t>
+  </si>
+  <si>
     <t>${Name.Loc}</t>
   </si>
   <si>
+    <t>${GodownPresent}</t>
+  </si>
+  <si>
     <t>Save the Row No.</t>
   </si>
   <si>
     <t>RowNo</t>
   </si>
   <si>
-    <t>ProceedIf(${nexial.lastOutcome} = true)</t>
+    <t>ProceedIf(${GodownPresent} = 1)</t>
   </si>
   <si>
     <t>click the godown name</t>
   </si>
   <si>
-    <t>SkipIf(${nexial.lastOutcome} = false)</t>
-  </si>
-  <si>
     <t>Increment the counter</t>
   </si>
   <si>
-    <t>EndLoopIf(${nexial.lastOutcome} = true)</t>
+    <t>EndLoopIf(${GodownPresent} = 1)</t>
   </si>
   <si>
     <t>Verify Edit Godown Page is opened</t>
@@ -2783,7 +2786,7 @@
     <t>GodownListContent</t>
   </si>
   <si>
-    <t>A4:F7</t>
+    <t>A4:F100</t>
   </si>
   <si>
     <t>Verify the Godown name available in the file</t>
@@ -9985,10 +9988,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:E47"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D79" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11039,48 +11042,48 @@
       <c r="N38" s="32"/>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="C39" s="36" t="s">
+    <row r="39" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A39" s="41"/>
+      <c r="B39" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>819</v>
-      </c>
-      <c r="F39" s="52">
-        <v>2000</v>
-      </c>
+      <c r="D39" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F39" s="44"/>
       <c r="G39" s="43"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="31"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="69"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="58"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="28"/>
       <c r="B40" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="43" t="s">
-        <v>253</v>
+      <c r="D40" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>821</v>
-      </c>
-      <c r="F40" s="52"/>
+        <v>819</v>
+      </c>
+      <c r="F40" s="52">
+        <v>2000</v>
+      </c>
       <c r="G40" s="43"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
@@ -11093,21 +11096,19 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="28"/>
-      <c r="B41" s="50" t="s">
-        <v>822</v>
+      <c r="B41" s="29" t="s">
+        <v>820</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E41" s="55" t="s">
-        <v>823</v>
-      </c>
-      <c r="F41" s="55">
-        <v>3000</v>
-      </c>
+      <c r="D41" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="F41" s="52"/>
       <c r="G41" s="43"/>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
@@ -11119,23 +11120,21 @@
       <c r="O41" s="31"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="28" t="s">
-        <v>824</v>
-      </c>
+      <c r="A42" s="28"/>
       <c r="B42" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="C42" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="C42" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="43" t="s">
-        <v>483</v>
+      <c r="D42" s="37" t="s">
+        <v>576</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>826</v>
-      </c>
-      <c r="F42" s="55" t="s">
-        <v>827</v>
+        <v>823</v>
+      </c>
+      <c r="F42" s="55">
+        <v>3000</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="37"/>
@@ -11148,21 +11147,23 @@
       <c r="O42" s="31"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="28"/>
+      <c r="A43" s="28" t="s">
+        <v>824</v>
+      </c>
       <c r="B43" s="50" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>829</v>
-      </c>
-      <c r="F43" s="55">
-        <v>1</v>
+        <v>826</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>827</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="37"/>
@@ -11177,19 +11178,19 @@
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="28"/>
       <c r="B44" s="50" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="E44" s="56">
-        <v>8</v>
+        <v>471</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>829</v>
       </c>
       <c r="F44" s="55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="37"/>
@@ -11204,19 +11205,19 @@
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="28"/>
       <c r="B45" s="50" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>832</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>833</v>
+        <v>465</v>
+      </c>
+      <c r="E45" s="56">
+        <v>9</v>
+      </c>
+      <c r="F45" s="55">
+        <v>-1</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="37"/>
@@ -11231,26 +11232,22 @@
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="28"/>
       <c r="B46" s="50" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>486</v>
+        <v>49</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F46" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>832</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>836</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="67"/>
       <c r="K46" s="31"/>
@@ -11271,16 +11268,16 @@
         <v>486</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F47" s="55" t="s">
-        <v>838</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>775</v>
+        <v>811</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>832</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="67"/>
@@ -11290,136 +11287,134 @@
       <c r="N47" s="32"/>
       <c r="O47" s="31"/>
     </row>
-    <row r="48" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="35" t="s">
+    <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="28"/>
+      <c r="B48" s="50" t="s">
+        <v>834</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>837</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>838</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" s="6" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A49" s="41"/>
+      <c r="B49" s="35" t="s">
         <v>763</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>764</v>
-      </c>
-      <c r="F48" s="44"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="69"/>
-      <c r="O48" s="58"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A49" s="28"/>
-      <c r="B49" s="50" t="s">
-        <v>840</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F49" s="43"/>
+        <v>714</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="F49" s="44"/>
       <c r="G49" s="43"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="31"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="29" spans="1:15">
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="69"/>
+      <c r="O49" s="58"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="1:15">
       <c r="A50" s="28"/>
       <c r="B50" s="50" t="s">
+        <v>840</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F50" s="55" t="s">
         <v>842</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>471</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>843</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>832</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="67" t="s">
-        <v>844</v>
-      </c>
+      <c r="J50" s="67"/>
       <c r="K50" s="31"/>
       <c r="L50" s="32"/>
       <c r="M50" s="30"/>
       <c r="N50" s="32"/>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="29" spans="1:15">
+    <row r="51" s="2" customFormat="1" spans="1:15">
       <c r="A51" s="28"/>
-      <c r="B51" s="50" t="s">
-        <v>845</v>
-      </c>
+      <c r="B51" s="50"/>
       <c r="C51" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F51" s="46">
-        <v>2000</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F51" s="38"/>
       <c r="G51" s="43"/>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
-      <c r="J51" s="67" t="s">
-        <v>846</v>
-      </c>
+      <c r="J51" s="67"/>
       <c r="K51" s="31"/>
       <c r="L51" s="32"/>
       <c r="M51" s="30"/>
       <c r="N51" s="32"/>
       <c r="O51" s="31"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="29" spans="1:15">
+    <row r="52" s="2" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A52" s="28"/>
       <c r="B52" s="50" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>829</v>
-      </c>
-      <c r="F52" s="46">
-        <v>1</v>
+        <v>845</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>832</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
       <c r="J52" s="67" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="K52" s="31"/>
       <c r="L52" s="32"/>
@@ -11430,70 +11425,76 @@
     <row r="53" s="2" customFormat="1" ht="15.5" spans="1:15">
       <c r="A53" s="28"/>
       <c r="B53" s="50" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>850</v>
-      </c>
-      <c r="F53" s="46"/>
+        <v>842</v>
+      </c>
+      <c r="F53" s="46">
+        <v>2000</v>
+      </c>
       <c r="G53" s="43"/>
       <c r="H53" s="37"/>
       <c r="I53" s="37"/>
-      <c r="J53" s="67"/>
+      <c r="J53" s="67" t="s">
+        <v>846</v>
+      </c>
       <c r="K53" s="31"/>
       <c r="L53" s="32"/>
       <c r="M53" s="30"/>
       <c r="N53" s="32"/>
       <c r="O53" s="31"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="54" s="2" customFormat="1" ht="15.5" spans="1:15">
       <c r="A54" s="28"/>
-      <c r="B54" s="35" t="s">
-        <v>763</v>
+      <c r="B54" s="50" t="s">
+        <v>848</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E54" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F54" s="53"/>
+        <v>302</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>829</v>
+      </c>
+      <c r="F54" s="46">
+        <v>1</v>
+      </c>
       <c r="G54" s="43"/>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="67"/>
+      <c r="J54" s="67" t="s">
+        <v>849</v>
+      </c>
       <c r="K54" s="31"/>
       <c r="L54" s="32"/>
       <c r="M54" s="30"/>
       <c r="N54" s="32"/>
       <c r="O54" s="31"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="55" s="2" customFormat="1" ht="15.5" spans="1:15">
       <c r="A55" s="28"/>
       <c r="B55" s="50" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>706</v>
+        <v>253</v>
       </c>
       <c r="E55" s="55" t="s">
-        <v>852</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>853</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="F55" s="46"/>
       <c r="G55" s="43"/>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
@@ -11506,21 +11507,19 @@
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="28"/>
-      <c r="B56" s="50" t="s">
-        <v>854</v>
+      <c r="B56" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>471</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>855</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>798</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E56" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F56" s="53"/>
       <c r="G56" s="43"/>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
@@ -11534,7 +11533,7 @@
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="28"/>
       <c r="B57" s="50" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C57" s="42" t="s">
         <v>30</v>
@@ -11543,10 +11542,10 @@
         <v>706</v>
       </c>
       <c r="E57" s="55" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="37"/>
@@ -11560,19 +11559,21 @@
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="28"/>
-      <c r="B58" s="35" t="s">
-        <v>763</v>
+      <c r="B58" s="50" t="s">
+        <v>855</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E58" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F58" s="53"/>
+        <v>471</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>856</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>798</v>
+      </c>
       <c r="G58" s="43"/>
       <c r="H58" s="37"/>
       <c r="I58" s="37"/>
@@ -11586,19 +11587,19 @@
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="28"/>
       <c r="B59" s="50" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="43" t="s">
-        <v>576</v>
+        <v>706</v>
       </c>
       <c r="E59" s="55" t="s">
-        <v>860</v>
-      </c>
-      <c r="F59" s="46">
-        <v>1000</v>
+        <v>858</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>859</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="37"/>
@@ -11612,19 +11613,19 @@
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="28"/>
-      <c r="B60" s="50" t="s">
-        <v>861</v>
+      <c r="B60" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D60" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E60" s="55" t="s">
-        <v>862</v>
-      </c>
-      <c r="F60" s="46"/>
+        <v>714</v>
+      </c>
+      <c r="E60" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="53"/>
       <c r="G60" s="43"/>
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
@@ -11635,21 +11636,23 @@
       <c r="N60" s="32"/>
       <c r="O60" s="31"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="28" spans="1:15">
-      <c r="A61" s="28" t="s">
-        <v>863</v>
-      </c>
+    <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="28"/>
       <c r="B61" s="50" t="s">
-        <v>822</v>
-      </c>
-      <c r="C61" s="36" t="s">
+        <v>860</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="37" t="s">
-        <v>618</v>
-      </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="46"/>
+      <c r="D61" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>861</v>
+      </c>
+      <c r="F61" s="46">
+        <v>1000</v>
+      </c>
       <c r="G61" s="43"/>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
@@ -11662,19 +11665,19 @@
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="28"/>
-      <c r="B62" s="35" t="s">
-        <v>763</v>
+      <c r="B62" s="50" t="s">
+        <v>862</v>
       </c>
       <c r="C62" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D62" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E62" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F62" s="53"/>
+        <v>253</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>863</v>
+      </c>
+      <c r="F62" s="46"/>
       <c r="G62" s="43"/>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
@@ -11685,29 +11688,23 @@
       <c r="N62" s="32"/>
       <c r="O62" s="31"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="28"/>
+    <row r="63" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A63" s="28" t="s">
+        <v>864</v>
+      </c>
       <c r="B63" s="50" t="s">
-        <v>834</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>864</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G63" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>866</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="E63" s="55"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="37"/>
       <c r="J63" s="67"/>
       <c r="K63" s="31"/>
@@ -11718,21 +11715,19 @@
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="28"/>
-      <c r="B64" s="50" t="s">
-        <v>867</v>
+      <c r="B64" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C64" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D64" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E64" s="55" t="s">
-        <v>868</v>
-      </c>
-      <c r="F64" s="53" t="s">
-        <v>775</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E64" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F64" s="53"/>
       <c r="G64" s="43"/>
       <c r="H64" s="37"/>
       <c r="I64" s="37"/>
@@ -11745,21 +11740,27 @@
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="28"/>
-      <c r="B65" s="35" t="s">
-        <v>763</v>
+      <c r="B65" s="50" t="s">
+        <v>834</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E65" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>865</v>
+      </c>
+      <c r="F65" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G65" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>867</v>
+      </c>
       <c r="I65" s="37"/>
       <c r="J65" s="67"/>
       <c r="K65" s="31"/>
@@ -11771,26 +11772,22 @@
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="28"/>
       <c r="B66" s="50" t="s">
-        <v>834</v>
+        <v>868</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D66" s="43" t="s">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="E66" s="55" t="s">
         <v>869</v>
       </c>
-      <c r="F66" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G66" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>870</v>
-      </c>
+      <c r="F66" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="G66" s="43"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="37"/>
       <c r="J66" s="67"/>
       <c r="K66" s="31"/>
@@ -11801,21 +11798,19 @@
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="28"/>
-      <c r="B67" s="50" t="s">
-        <v>867</v>
+      <c r="B67" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E67" s="55" t="s">
-        <v>871</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>781</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E67" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F67" s="53"/>
       <c r="G67" s="43"/>
       <c r="H67" s="37"/>
       <c r="I67" s="37"/>
@@ -11828,21 +11823,27 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="28"/>
-      <c r="B68" s="35" t="s">
-        <v>763</v>
+      <c r="B68" s="50" t="s">
+        <v>834</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D68" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E68" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>870</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G68" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="H68" s="37" t="s">
+        <v>871</v>
+      </c>
       <c r="I68" s="37"/>
       <c r="J68" s="67"/>
       <c r="K68" s="31"/>
@@ -11854,26 +11855,22 @@
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="28"/>
       <c r="B69" s="50" t="s">
-        <v>834</v>
+        <v>868</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D69" s="43" t="s">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="E69" s="55" t="s">
         <v>872</v>
       </c>
-      <c r="F69" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G69" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>873</v>
-      </c>
+      <c r="F69" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="G69" s="43"/>
+      <c r="H69" s="37"/>
       <c r="I69" s="37"/>
       <c r="J69" s="67"/>
       <c r="K69" s="31"/>
@@ -11884,21 +11881,19 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="28"/>
-      <c r="B70" s="50" t="s">
-        <v>874</v>
+      <c r="B70" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C70" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D70" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E70" s="55" t="s">
-        <v>875</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>804</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E70" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F70" s="53"/>
       <c r="G70" s="43"/>
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
@@ -11911,21 +11906,27 @@
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="28"/>
-      <c r="B71" s="35" t="s">
-        <v>763</v>
+      <c r="B71" s="50" t="s">
+        <v>834</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D71" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E71" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>873</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>874</v>
+      </c>
       <c r="I71" s="37"/>
       <c r="J71" s="67"/>
       <c r="K71" s="31"/>
@@ -11937,26 +11938,22 @@
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A72" s="28"/>
       <c r="B72" s="50" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D72" s="43" t="s">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="E72" s="55" t="s">
         <v>876</v>
       </c>
-      <c r="F72" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G72" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>877</v>
-      </c>
+      <c r="F72" s="46" t="s">
+        <v>804</v>
+      </c>
+      <c r="G72" s="43"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="37"/>
       <c r="J72" s="67"/>
       <c r="K72" s="31"/>
@@ -11967,21 +11964,19 @@
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="28"/>
-      <c r="B73" s="50" t="s">
-        <v>878</v>
+      <c r="B73" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C73" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E73" s="55" t="s">
-        <v>879</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>853</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E73" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F73" s="53"/>
       <c r="G73" s="43"/>
       <c r="H73" s="37"/>
       <c r="I73" s="37"/>
@@ -11994,21 +11989,27 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="28"/>
-      <c r="B74" s="35" t="s">
-        <v>763</v>
+      <c r="B74" s="50" t="s">
+        <v>834</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E74" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E74" s="55" t="s">
+        <v>877</v>
+      </c>
+      <c r="F74" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>878</v>
+      </c>
       <c r="I74" s="37"/>
       <c r="J74" s="67"/>
       <c r="K74" s="31"/>
@@ -12020,26 +12021,22 @@
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="28"/>
       <c r="B75" s="50" t="s">
-        <v>834</v>
+        <v>879</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="E75" s="55" t="s">
         <v>880</v>
       </c>
-      <c r="F75" s="55" t="s">
-        <v>811</v>
-      </c>
-      <c r="G75" s="55" t="s">
-        <v>865</v>
-      </c>
-      <c r="H75" s="37" t="s">
-        <v>881</v>
-      </c>
+      <c r="F75" s="43" t="s">
+        <v>854</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="37"/>
       <c r="I75" s="37"/>
       <c r="J75" s="67"/>
       <c r="K75" s="31"/>
@@ -12050,21 +12047,19 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A76" s="28"/>
-      <c r="B76" s="50" t="s">
-        <v>882</v>
+      <c r="B76" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C76" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E76" s="55" t="s">
-        <v>883</v>
-      </c>
-      <c r="F76" s="46" t="s">
-        <v>858</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E76" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="53"/>
       <c r="G76" s="43"/>
       <c r="H76" s="37"/>
       <c r="I76" s="37"/>
@@ -12077,21 +12072,27 @@
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="28"/>
-      <c r="B77" s="35" t="s">
-        <v>763</v>
+      <c r="B77" s="50" t="s">
+        <v>834</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D77" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E77" s="55">
-        <v>2000</v>
-      </c>
-      <c r="F77" s="53"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E77" s="55" t="s">
+        <v>881</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="G77" s="55" t="s">
+        <v>866</v>
+      </c>
+      <c r="H77" s="37" t="s">
+        <v>882</v>
+      </c>
       <c r="I77" s="37"/>
       <c r="J77" s="67"/>
       <c r="K77" s="31"/>
@@ -12100,48 +12101,48 @@
       <c r="N77" s="32"/>
       <c r="O77" s="31"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="41" t="s">
-        <v>884</v>
-      </c>
+    <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="28"/>
       <c r="B78" s="50" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>886</v>
-      </c>
-      <c r="F78" s="37"/>
+        <v>319</v>
+      </c>
+      <c r="E78" s="55" t="s">
+        <v>884</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>859</v>
+      </c>
       <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="69"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="69"/>
-      <c r="O78" s="58"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="67"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="31"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="28"/>
-      <c r="B79" s="50" t="s">
-        <v>887</v>
+      <c r="B79" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="E79" s="43" t="s">
-        <v>886</v>
-      </c>
-      <c r="F79" s="55"/>
+        <v>714</v>
+      </c>
+      <c r="E79" s="55">
+        <v>2000</v>
+      </c>
+      <c r="F79" s="53"/>
       <c r="G79" s="43"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
@@ -12153,20 +12154,22 @@
       <c r="O79" s="31"/>
     </row>
     <row r="80" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A80" s="75"/>
-      <c r="B80" s="35" t="s">
-        <v>763</v>
+      <c r="A80" s="41" t="s">
+        <v>885</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>886</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D80" s="43" t="s">
-        <v>540</v>
+        <v>253</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>764</v>
-      </c>
-      <c r="F80" s="76"/>
+        <v>887</v>
+      </c>
+      <c r="F80" s="37"/>
       <c r="G80" s="43"/>
       <c r="H80" s="43"/>
       <c r="I80" s="43"/>
@@ -12177,24 +12180,22 @@
       <c r="N80" s="69"/>
       <c r="O80" s="58"/>
     </row>
-    <row r="81" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="28"/>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="50" t="s">
         <v>888</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D81" s="43" t="s">
-        <v>633</v>
+        <v>363</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>889</v>
-      </c>
-      <c r="F81" s="77" t="s">
-        <v>890</v>
-      </c>
-      <c r="G81" s="78"/>
+        <v>887</v>
+      </c>
+      <c r="F81" s="55"/>
+      <c r="G81" s="43"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="67"/>
@@ -12204,47 +12205,47 @@
       <c r="N81" s="32"/>
       <c r="O81" s="31"/>
     </row>
-    <row r="82" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="28"/>
+    <row r="82" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="75"/>
       <c r="B82" s="35" t="s">
-        <v>891</v>
+        <v>763</v>
       </c>
       <c r="C82" s="42" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="43" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>892</v>
-      </c>
-      <c r="F82" s="77"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="32"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="32"/>
-      <c r="O82" s="31"/>
+        <v>764</v>
+      </c>
+      <c r="F82" s="76"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="69"/>
+      <c r="M82" s="70"/>
+      <c r="N82" s="69"/>
+      <c r="O82" s="58"/>
     </row>
     <row r="83" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="28"/>
-      <c r="B83" s="35" t="s">
-        <v>893</v>
+      <c r="B83" s="29" t="s">
+        <v>889</v>
       </c>
       <c r="C83" s="42" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="43" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>894</v>
-      </c>
-      <c r="F83" s="79" t="s">
-        <v>895</v>
+        <v>890</v>
+      </c>
+      <c r="F83" s="77" t="s">
+        <v>891</v>
       </c>
       <c r="G83" s="78"/>
       <c r="H83" s="37"/>
@@ -12256,21 +12257,21 @@
       <c r="N83" s="32"/>
       <c r="O83" s="31"/>
     </row>
-    <row r="84" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="80"/>
+    <row r="84" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="28"/>
       <c r="B84" s="35" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D84" s="43" t="s">
-        <v>337</v>
+        <v>536</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>897</v>
-      </c>
-      <c r="F84" s="35"/>
+        <v>893</v>
+      </c>
+      <c r="F84" s="77"/>
       <c r="G84" s="78"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
@@ -12281,21 +12282,23 @@
       <c r="N84" s="32"/>
       <c r="O84" s="31"/>
     </row>
-    <row r="85" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="80"/>
+    <row r="85" s="8" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="28"/>
       <c r="B85" s="35" t="s">
-        <v>763</v>
+        <v>894</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D85" s="43" t="s">
-        <v>540</v>
-      </c>
-      <c r="E85" s="43">
-        <v>3000</v>
-      </c>
-      <c r="F85" s="35"/>
+        <v>656</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>895</v>
+      </c>
+      <c r="F85" s="79" t="s">
+        <v>896</v>
+      </c>
       <c r="G85" s="78"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
@@ -12307,22 +12310,20 @@
       <c r="O85" s="31"/>
     </row>
     <row r="86" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="81"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="35" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C86" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="43" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>899</v>
-      </c>
-      <c r="F86" s="77" t="s">
-        <v>897</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="F86" s="35"/>
       <c r="G86" s="78"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
@@ -12334,25 +12335,21 @@
       <c r="O86" s="31"/>
     </row>
     <row r="87" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="81"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="35" t="s">
-        <v>900</v>
+        <v>763</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D87" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="E87" s="43" t="s">
-        <v>901</v>
-      </c>
-      <c r="F87" s="77" t="s">
-        <v>902</v>
-      </c>
-      <c r="G87" s="78" t="s">
-        <v>903</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="E87" s="43">
+        <v>3000</v>
+      </c>
+      <c r="F87" s="35"/>
+      <c r="G87" s="78"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="67"/>
@@ -12365,26 +12362,22 @@
     <row r="88" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="81"/>
       <c r="B88" s="35" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="43" t="s">
-        <v>248</v>
+        <v>349</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>905</v>
-      </c>
-      <c r="F88" s="43" t="s">
-        <v>901</v>
-      </c>
-      <c r="G88" s="78" t="s">
-        <v>903</v>
-      </c>
-      <c r="H88" s="37" t="s">
-        <v>906</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="F88" s="77" t="s">
+        <v>898</v>
+      </c>
+      <c r="G88" s="78"/>
+      <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="67"/>
       <c r="K88" s="31"/>
@@ -12396,21 +12389,23 @@
     <row r="89" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="81"/>
       <c r="B89" s="35" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D89" s="43" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F89" s="77" t="s">
-        <v>775</v>
-      </c>
-      <c r="G89" s="78"/>
+        <v>903</v>
+      </c>
+      <c r="G89" s="78" t="s">
+        <v>904</v>
+      </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="67"/>
@@ -12420,30 +12415,28 @@
       <c r="N89" s="32"/>
       <c r="O89" s="31"/>
     </row>
-    <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A90" s="28" t="s">
-        <v>909</v>
-      </c>
-      <c r="B90" s="50" t="s">
-        <v>910</v>
+    <row r="90" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="81"/>
+      <c r="B90" s="35" t="s">
+        <v>905</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E90" s="55" t="s">
-        <v>911</v>
-      </c>
-      <c r="F90" s="55" t="s">
-        <v>912</v>
-      </c>
-      <c r="G90" s="53" t="s">
-        <v>775</v>
+        <v>248</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>906</v>
+      </c>
+      <c r="F90" s="43" t="s">
+        <v>902</v>
+      </c>
+      <c r="G90" s="78" t="s">
+        <v>904</v>
       </c>
       <c r="H90" s="37" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I90" s="37"/>
       <c r="J90" s="67"/>
@@ -12453,22 +12446,24 @@
       <c r="N90" s="32"/>
       <c r="O90" s="31"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B91" s="50" t="s">
-        <v>914</v>
+    <row r="91" s="9" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A91" s="81"/>
+      <c r="B91" s="35" t="s">
+        <v>908</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D91" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E91" s="55" t="s">
-        <v>915</v>
-      </c>
-      <c r="F91" s="46">
-        <v>2000</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>909</v>
+      </c>
+      <c r="F91" s="77" t="s">
+        <v>775</v>
+      </c>
+      <c r="G91" s="78"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="67"/>
@@ -12478,21 +12473,31 @@
       <c r="N91" s="32"/>
       <c r="O91" s="31"/>
     </row>
-    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B92" s="35" t="s">
-        <v>763</v>
+    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="28" t="s">
+        <v>910</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>911</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D92" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E92" s="55">
-        <v>5000</v>
-      </c>
-      <c r="F92" s="46"/>
-      <c r="H92" s="37"/>
+        <v>486</v>
+      </c>
+      <c r="E92" s="55" t="s">
+        <v>912</v>
+      </c>
+      <c r="F92" s="55" t="s">
+        <v>913</v>
+      </c>
+      <c r="G92" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>914</v>
+      </c>
       <c r="I92" s="37"/>
       <c r="J92" s="67"/>
       <c r="K92" s="31"/>
@@ -12501,10 +12506,9 @@
       <c r="N92" s="32"/>
       <c r="O92" s="31"/>
     </row>
-    <row r="93" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A93" s="28"/>
+    <row r="93" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B93" s="50" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C93" s="42" t="s">
         <v>30</v>
@@ -12513,12 +12517,11 @@
         <v>576</v>
       </c>
       <c r="E93" s="55" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F93" s="46">
         <v>2000</v>
       </c>
-      <c r="G93" s="43"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="67"/>
@@ -12528,29 +12531,21 @@
       <c r="N93" s="32"/>
       <c r="O93" s="31"/>
     </row>
-    <row r="94" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A94" s="28"/>
-      <c r="B94" s="50" t="s">
-        <v>809</v>
+    <row r="94" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B94" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D94" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E94" s="55" t="s">
-        <v>918</v>
-      </c>
-      <c r="F94" s="46" t="s">
-        <v>919</v>
-      </c>
-      <c r="G94" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="H94" s="37" t="s">
-        <v>920</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E94" s="55">
+        <v>5000</v>
+      </c>
+      <c r="F94" s="46"/>
+      <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="67"/>
       <c r="K94" s="31"/>
@@ -12562,18 +12557,20 @@
     <row r="95" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A95" s="28"/>
       <c r="B95" s="50" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C95" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D95" s="43" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E95" s="55" t="s">
-        <v>922</v>
-      </c>
-      <c r="F95" s="46"/>
+        <v>918</v>
+      </c>
+      <c r="F95" s="46">
+        <v>2000</v>
+      </c>
       <c r="G95" s="43"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
@@ -12587,22 +12584,26 @@
     <row r="96" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A96" s="28"/>
       <c r="B96" s="50" t="s">
-        <v>923</v>
+        <v>809</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D96" s="43" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>816</v>
-      </c>
-      <c r="F96" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G96" s="43"/>
-      <c r="H96" s="37"/>
+        <v>919</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="G96" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H96" s="37" t="s">
+        <v>921</v>
+      </c>
       <c r="I96" s="37"/>
       <c r="J96" s="67"/>
       <c r="K96" s="31"/>
@@ -12613,19 +12614,19 @@
     </row>
     <row r="97" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="28"/>
-      <c r="B97" s="35" t="s">
-        <v>763</v>
+      <c r="B97" s="50" t="s">
+        <v>922</v>
       </c>
       <c r="C97" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="43" t="s">
-        <v>714</v>
-      </c>
-      <c r="E97" s="55">
-        <v>3000</v>
-      </c>
-      <c r="F97" s="53"/>
+        <v>253</v>
+      </c>
+      <c r="E97" s="55" t="s">
+        <v>923</v>
+      </c>
+      <c r="F97" s="46"/>
       <c r="G97" s="43"/>
       <c r="H97" s="37"/>
       <c r="I97" s="37"/>
@@ -12639,7 +12640,7 @@
     <row r="98" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A98" s="28"/>
       <c r="B98" s="50" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C98" s="42" t="s">
         <v>30</v>
@@ -12648,7 +12649,7 @@
         <v>576</v>
       </c>
       <c r="E98" s="55" t="s">
-        <v>917</v>
+        <v>816</v>
       </c>
       <c r="F98" s="46">
         <v>2000</v>
@@ -12691,7 +12692,7 @@
     <row r="100" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A100" s="28"/>
       <c r="B100" s="50" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>30</v>
@@ -12700,7 +12701,7 @@
         <v>576</v>
       </c>
       <c r="E100" s="55" t="s">
-        <v>819</v>
+        <v>918</v>
       </c>
       <c r="F100" s="46">
         <v>2000</v>
@@ -12717,27 +12718,21 @@
     </row>
     <row r="101" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A101" s="28"/>
-      <c r="B101" s="50" t="s">
-        <v>925</v>
+      <c r="B101" s="35" t="s">
+        <v>763</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D101" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>926</v>
-      </c>
-      <c r="F101" s="46" t="s">
-        <v>919</v>
-      </c>
-      <c r="G101" s="53" t="s">
-        <v>775</v>
-      </c>
-      <c r="H101" s="37" t="s">
-        <v>927</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="E101" s="55">
+        <v>3000</v>
+      </c>
+      <c r="F101" s="53"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="67"/>
       <c r="K101" s="31"/>
@@ -12749,18 +12744,20 @@
     <row r="102" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A102" s="28"/>
       <c r="B102" s="50" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C102" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D102" s="43" t="s">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>929</v>
-      </c>
-      <c r="F102" s="46"/>
+        <v>819</v>
+      </c>
+      <c r="F102" s="46">
+        <v>2000</v>
+      </c>
       <c r="G102" s="43"/>
       <c r="H102" s="37"/>
       <c r="I102" s="37"/>
@@ -12774,21 +12771,26 @@
     <row r="103" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A103" s="28"/>
       <c r="B103" s="50" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D103" s="43" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="E103" s="55" t="s">
-        <v>841</v>
-      </c>
-      <c r="F103" s="46">
-        <v>5000</v>
-      </c>
-      <c r="H103" s="37"/>
+        <v>927</v>
+      </c>
+      <c r="F103" s="46" t="s">
+        <v>920</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="H103" s="37" t="s">
+        <v>928</v>
+      </c>
       <c r="I103" s="37"/>
       <c r="J103" s="67"/>
       <c r="K103" s="31"/>
@@ -12798,24 +12800,21 @@
       <c r="O103" s="31"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="28" t="s">
-        <v>931</v>
-      </c>
+      <c r="A104" s="28"/>
       <c r="B104" s="50" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C104" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D104" s="43" t="s">
-        <v>576</v>
+        <v>253</v>
       </c>
       <c r="E104" s="55" t="s">
-        <v>933</v>
-      </c>
-      <c r="F104" s="46">
-        <v>5000</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="F104" s="46"/>
+      <c r="G104" s="43"/>
       <c r="H104" s="37"/>
       <c r="I104" s="37"/>
       <c r="J104" s="67"/>
@@ -12828,22 +12827,19 @@
     <row r="105" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="28"/>
       <c r="B105" s="50" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C105" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="43" t="s">
-        <v>102</v>
+        <v>366</v>
       </c>
       <c r="E105" s="55" t="s">
-        <v>917</v>
-      </c>
-      <c r="F105" s="46" t="s">
-        <v>935</v>
-      </c>
-      <c r="G105" s="46" t="s">
-        <v>936</v>
+        <v>842</v>
+      </c>
+      <c r="F105" s="46">
+        <v>5000</v>
       </c>
       <c r="H105" s="37"/>
       <c r="I105" s="37"/>
@@ -12856,24 +12852,23 @@
     </row>
     <row r="106" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A106" s="28" t="s">
-        <v>937</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>938</v>
+        <v>932</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>933</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D106" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="E106" s="43" t="s">
-        <v>897</v>
-      </c>
-      <c r="F106" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G106" s="43"/>
+        <v>576</v>
+      </c>
+      <c r="E106" s="55" t="s">
+        <v>934</v>
+      </c>
+      <c r="F106" s="46">
+        <v>5000</v>
+      </c>
       <c r="H106" s="37"/>
       <c r="I106" s="37"/>
       <c r="J106" s="67"/>
@@ -12885,10 +12880,24 @@
     </row>
     <row r="107" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A107" s="28"/>
-      <c r="B107" s="50"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="43"/>
+      <c r="B107" s="50" t="s">
+        <v>935</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="55" t="s">
+        <v>918</v>
+      </c>
+      <c r="F107" s="46" t="s">
+        <v>936</v>
+      </c>
+      <c r="G107" s="46" t="s">
+        <v>937</v>
+      </c>
       <c r="H107" s="37"/>
       <c r="I107" s="37"/>
       <c r="J107" s="67"/>
@@ -12898,41 +12907,51 @@
       <c r="N107" s="32"/>
       <c r="O107" s="31"/>
     </row>
-    <row r="108" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A108" s="41"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
+    <row r="108" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A108" s="28" t="s">
+        <v>938</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>939</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>898</v>
+      </c>
+      <c r="F108" s="55" t="b">
+        <v>1</v>
+      </c>
       <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="69"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="69"/>
-      <c r="O108" s="58"/>
-    </row>
-    <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A109" s="41"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="67"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="32"/>
+      <c r="O108" s="31"/>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A109" s="28"/>
       <c r="B109" s="50"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
       <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="58"/>
-      <c r="L109" s="69"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="69"/>
-      <c r="O109" s="58"/>
-    </row>
-    <row r="110" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="31"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="32"/>
+      <c r="O109" s="31"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A110" s="41"/>
       <c r="B110" s="50"/>
       <c r="C110" s="42"/>
@@ -12949,13 +12968,13 @@
       <c r="N110" s="69"/>
       <c r="O110" s="58"/>
     </row>
-    <row r="111" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="111" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A111" s="41"/>
       <c r="B111" s="50"/>
       <c r="C111" s="42"/>
       <c r="D111" s="43"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
       <c r="I111" s="43"/>
@@ -12972,7 +12991,7 @@
       <c r="C112" s="42"/>
       <c r="D112" s="43"/>
       <c r="E112" s="43"/>
-      <c r="F112" s="37"/>
+      <c r="F112" s="43"/>
       <c r="G112" s="43"/>
       <c r="H112" s="43"/>
       <c r="I112" s="43"/>
@@ -13017,30 +13036,30 @@
       <c r="N114" s="69"/>
       <c r="O114" s="58"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A115" s="28"/>
+    <row r="115" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A115" s="41"/>
       <c r="B115" s="50"/>
       <c r="C115" s="42"/>
       <c r="D115" s="43"/>
-      <c r="E115" s="40"/>
+      <c r="E115" s="37"/>
       <c r="F115" s="37"/>
       <c r="G115" s="43"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="31"/>
-      <c r="L115" s="32"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="32"/>
-      <c r="O115" s="31"/>
-    </row>
-    <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="58"/>
+      <c r="L115" s="69"/>
+      <c r="M115" s="70"/>
+      <c r="N115" s="69"/>
+      <c r="O115" s="58"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A116" s="41"/>
       <c r="B116" s="50"/>
       <c r="C116" s="42"/>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
+      <c r="F116" s="37"/>
       <c r="G116" s="43"/>
       <c r="H116" s="43"/>
       <c r="I116" s="43"/>
@@ -13051,22 +13070,22 @@
       <c r="N116" s="69"/>
       <c r="O116" s="58"/>
     </row>
-    <row r="117" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A117" s="41"/>
+    <row r="117" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A117" s="28"/>
       <c r="B117" s="50"/>
       <c r="C117" s="42"/>
       <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="82"/>
+      <c r="E117" s="40"/>
+      <c r="F117" s="37"/>
       <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="58"/>
-      <c r="L117" s="69"/>
-      <c r="M117" s="70"/>
-      <c r="N117" s="69"/>
-      <c r="O117" s="58"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="67"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="30"/>
+      <c r="N117" s="32"/>
+      <c r="O117" s="31"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A118" s="41"/>
@@ -13074,7 +13093,7 @@
       <c r="C118" s="42"/>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
-      <c r="F118" s="82"/>
+      <c r="F118" s="43"/>
       <c r="G118" s="43"/>
       <c r="H118" s="43"/>
       <c r="I118" s="43"/>
@@ -13090,8 +13109,8 @@
       <c r="B119" s="50"/>
       <c r="C119" s="42"/>
       <c r="D119" s="43"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="46"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="82"/>
       <c r="G119" s="43"/>
       <c r="H119" s="43"/>
       <c r="I119" s="43"/>
@@ -13107,8 +13126,8 @@
       <c r="B120" s="50"/>
       <c r="C120" s="42"/>
       <c r="D120" s="43"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="46"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="82"/>
       <c r="G120" s="43"/>
       <c r="H120" s="43"/>
       <c r="I120" s="43"/>
@@ -13124,8 +13143,8 @@
       <c r="B121" s="50"/>
       <c r="C121" s="42"/>
       <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="46"/>
       <c r="G121" s="43"/>
       <c r="H121" s="43"/>
       <c r="I121" s="43"/>
@@ -13141,8 +13160,8 @@
       <c r="B122" s="50"/>
       <c r="C122" s="42"/>
       <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="46"/>
       <c r="G122" s="43"/>
       <c r="H122" s="43"/>
       <c r="I122" s="43"/>
@@ -13170,7 +13189,7 @@
       <c r="N123" s="69"/>
       <c r="O123" s="58"/>
     </row>
-    <row r="124" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row r="124" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A124" s="41"/>
       <c r="B124" s="50"/>
       <c r="C124" s="42"/>
@@ -13187,13 +13206,13 @@
       <c r="N124" s="69"/>
       <c r="O124" s="58"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="125" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A125" s="41"/>
       <c r="B125" s="50"/>
       <c r="C125" s="42"/>
       <c r="D125" s="43"/>
       <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
+      <c r="F125" s="37"/>
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
       <c r="I125" s="43"/>
@@ -13204,13 +13223,13 @@
       <c r="N125" s="69"/>
       <c r="O125" s="58"/>
     </row>
-    <row r="126" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="126" s="1" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A126" s="41"/>
       <c r="B126" s="50"/>
       <c r="C126" s="42"/>
       <c r="D126" s="43"/>
       <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
+      <c r="F126" s="37"/>
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
       <c r="I126" s="43"/>
@@ -13221,13 +13240,13 @@
       <c r="N126" s="69"/>
       <c r="O126" s="58"/>
     </row>
-    <row r="127" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="127" s="1" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A127" s="41"/>
       <c r="B127" s="50"/>
       <c r="C127" s="42"/>
       <c r="D127" s="43"/>
       <c r="E127" s="43"/>
-      <c r="F127" s="82"/>
+      <c r="F127" s="43"/>
       <c r="G127" s="43"/>
       <c r="H127" s="43"/>
       <c r="I127" s="43"/>
@@ -13244,7 +13263,7 @@
       <c r="C128" s="42"/>
       <c r="D128" s="43"/>
       <c r="E128" s="43"/>
-      <c r="F128" s="82"/>
+      <c r="F128" s="43"/>
       <c r="G128" s="43"/>
       <c r="H128" s="43"/>
       <c r="I128" s="43"/>
@@ -13329,7 +13348,7 @@
       <c r="C133" s="42"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
+      <c r="F133" s="82"/>
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
       <c r="I133" s="43"/>
@@ -13346,7 +13365,7 @@
       <c r="C134" s="42"/>
       <c r="D134" s="43"/>
       <c r="E134" s="43"/>
-      <c r="F134" s="68"/>
+      <c r="F134" s="82"/>
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
       <c r="I134" s="43"/>
@@ -13363,7 +13382,7 @@
       <c r="C135" s="42"/>
       <c r="D135" s="43"/>
       <c r="E135" s="43"/>
-      <c r="F135" s="44"/>
+      <c r="F135" s="43"/>
       <c r="G135" s="43"/>
       <c r="H135" s="43"/>
       <c r="I135" s="43"/>
@@ -13380,7 +13399,7 @@
       <c r="C136" s="42"/>
       <c r="D136" s="43"/>
       <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
+      <c r="F136" s="68"/>
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
       <c r="I136" s="43"/>
@@ -13397,7 +13416,7 @@
       <c r="C137" s="42"/>
       <c r="D137" s="43"/>
       <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
+      <c r="F137" s="44"/>
       <c r="G137" s="43"/>
       <c r="H137" s="43"/>
       <c r="I137" s="43"/>
@@ -13414,7 +13433,7 @@
       <c r="C138" s="42"/>
       <c r="D138" s="43"/>
       <c r="E138" s="43"/>
-      <c r="F138" s="68"/>
+      <c r="F138" s="43"/>
       <c r="G138" s="43"/>
       <c r="H138" s="43"/>
       <c r="I138" s="43"/>
@@ -13448,7 +13467,7 @@
       <c r="C140" s="42"/>
       <c r="D140" s="43"/>
       <c r="E140" s="43"/>
-      <c r="F140" s="43"/>
+      <c r="F140" s="68"/>
       <c r="G140" s="43"/>
       <c r="H140" s="43"/>
       <c r="I140" s="43"/>
@@ -13459,13 +13478,13 @@
       <c r="N140" s="69"/>
       <c r="O140" s="58"/>
     </row>
-    <row r="141" s="1" customFormat="1" spans="1:15">
+    <row r="141" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A141" s="41"/>
       <c r="B141" s="50"/>
       <c r="C141" s="42"/>
       <c r="D141" s="43"/>
       <c r="E141" s="43"/>
-      <c r="F141" s="37"/>
+      <c r="F141" s="43"/>
       <c r="G141" s="43"/>
       <c r="H141" s="43"/>
       <c r="I141" s="43"/>
@@ -13476,13 +13495,13 @@
       <c r="N141" s="69"/>
       <c r="O141" s="58"/>
     </row>
-    <row r="142" s="1" customFormat="1" spans="1:15">
+    <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A142" s="41"/>
       <c r="B142" s="50"/>
       <c r="C142" s="42"/>
       <c r="D142" s="43"/>
       <c r="E142" s="43"/>
-      <c r="F142" s="37"/>
+      <c r="F142" s="43"/>
       <c r="G142" s="43"/>
       <c r="H142" s="43"/>
       <c r="I142" s="43"/>
@@ -13513,8 +13532,8 @@
     <row r="144" s="1" customFormat="1" spans="1:15">
       <c r="A144" s="41"/>
       <c r="B144" s="50"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
       <c r="E144" s="43"/>
       <c r="F144" s="37"/>
       <c r="G144" s="43"/>
@@ -13533,7 +13552,7 @@
       <c r="C145" s="42"/>
       <c r="D145" s="43"/>
       <c r="E145" s="43"/>
-      <c r="F145" s="44"/>
+      <c r="F145" s="37"/>
       <c r="G145" s="43"/>
       <c r="H145" s="43"/>
       <c r="I145" s="43"/>
@@ -13547,10 +13566,10 @@
     <row r="146" s="1" customFormat="1" spans="1:15">
       <c r="A146" s="41"/>
       <c r="B146" s="50"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="43"/>
+      <c r="C146" s="36"/>
+      <c r="D146" s="37"/>
       <c r="E146" s="43"/>
-      <c r="F146" s="43"/>
+      <c r="F146" s="37"/>
       <c r="G146" s="43"/>
       <c r="H146" s="43"/>
       <c r="I146" s="43"/>
@@ -13567,7 +13586,7 @@
       <c r="C147" s="42"/>
       <c r="D147" s="43"/>
       <c r="E147" s="43"/>
-      <c r="F147" s="43"/>
+      <c r="F147" s="44"/>
       <c r="G147" s="43"/>
       <c r="H147" s="43"/>
       <c r="I147" s="43"/>
@@ -13578,13 +13597,13 @@
       <c r="N147" s="69"/>
       <c r="O147" s="58"/>
     </row>
-    <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="148" s="1" customFormat="1" spans="1:15">
       <c r="A148" s="41"/>
       <c r="B148" s="50"/>
       <c r="C148" s="42"/>
       <c r="D148" s="43"/>
       <c r="E148" s="43"/>
-      <c r="F148" s="68"/>
+      <c r="F148" s="43"/>
       <c r="G148" s="43"/>
       <c r="H148" s="43"/>
       <c r="I148" s="43"/>
@@ -13595,13 +13614,13 @@
       <c r="N148" s="69"/>
       <c r="O148" s="58"/>
     </row>
-    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="149" s="1" customFormat="1" spans="1:15">
       <c r="A149" s="41"/>
       <c r="B149" s="50"/>
       <c r="C149" s="42"/>
       <c r="D149" s="43"/>
       <c r="E149" s="43"/>
-      <c r="F149" s="68"/>
+      <c r="F149" s="43"/>
       <c r="G149" s="43"/>
       <c r="H149" s="43"/>
       <c r="I149" s="43"/>
@@ -13612,13 +13631,13 @@
       <c r="N149" s="69"/>
       <c r="O149" s="58"/>
     </row>
-    <row r="150" s="1" customFormat="1" spans="1:15">
+    <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A150" s="41"/>
       <c r="B150" s="50"/>
       <c r="C150" s="42"/>
       <c r="D150" s="43"/>
       <c r="E150" s="43"/>
-      <c r="F150" s="37"/>
+      <c r="F150" s="68"/>
       <c r="G150" s="43"/>
       <c r="H150" s="43"/>
       <c r="I150" s="43"/>
@@ -13629,13 +13648,13 @@
       <c r="N150" s="69"/>
       <c r="O150" s="58"/>
     </row>
-    <row r="151" s="1" customFormat="1" spans="1:15">
+    <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A151" s="41"/>
       <c r="B151" s="50"/>
       <c r="C151" s="42"/>
       <c r="D151" s="43"/>
       <c r="E151" s="43"/>
-      <c r="F151" s="37"/>
+      <c r="F151" s="68"/>
       <c r="G151" s="43"/>
       <c r="H151" s="43"/>
       <c r="I151" s="43"/>
@@ -13663,7 +13682,7 @@
       <c r="N152" s="69"/>
       <c r="O152" s="58"/>
     </row>
-    <row r="153" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="153" s="1" customFormat="1" spans="1:15">
       <c r="A153" s="41"/>
       <c r="B153" s="50"/>
       <c r="C153" s="42"/>
@@ -13680,7 +13699,7 @@
       <c r="N153" s="69"/>
       <c r="O153" s="58"/>
     </row>
-    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="154" s="1" customFormat="1" spans="1:15">
       <c r="A154" s="41"/>
       <c r="B154" s="50"/>
       <c r="C154" s="42"/>
@@ -13703,7 +13722,7 @@
       <c r="C155" s="42"/>
       <c r="D155" s="43"/>
       <c r="E155" s="43"/>
-      <c r="F155" s="43"/>
+      <c r="F155" s="37"/>
       <c r="G155" s="43"/>
       <c r="H155" s="43"/>
       <c r="I155" s="43"/>
@@ -13717,9 +13736,9 @@
     <row r="156" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A156" s="41"/>
       <c r="B156" s="50"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43"/>
       <c r="F156" s="37"/>
       <c r="G156" s="43"/>
       <c r="H156" s="43"/>
@@ -13731,39 +13750,39 @@
       <c r="N156" s="69"/>
       <c r="O156" s="58"/>
     </row>
-    <row r="157" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="83"/>
-      <c r="B157" s="84"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="47"/>
-      <c r="E157" s="47"/>
-      <c r="F157" s="47"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="47"/>
-      <c r="J157" s="86"/>
-      <c r="K157" s="87"/>
-      <c r="L157" s="88"/>
-      <c r="M157" s="89"/>
-      <c r="N157" s="88"/>
-      <c r="O157" s="87"/>
-    </row>
-    <row r="158" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="83"/>
-      <c r="B158" s="84"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
-      <c r="I158" s="47"/>
-      <c r="J158" s="86"/>
-      <c r="K158" s="87"/>
-      <c r="L158" s="88"/>
-      <c r="M158" s="89"/>
-      <c r="N158" s="88"/>
-      <c r="O158" s="87"/>
+    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="41"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="68"/>
+      <c r="K157" s="58"/>
+      <c r="L157" s="69"/>
+      <c r="M157" s="70"/>
+      <c r="N157" s="69"/>
+      <c r="O157" s="58"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="41"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="68"/>
+      <c r="K158" s="58"/>
+      <c r="L158" s="69"/>
+      <c r="M158" s="70"/>
+      <c r="N158" s="69"/>
+      <c r="O158" s="58"/>
     </row>
     <row r="159" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A159" s="83"/>
@@ -13816,39 +13835,39 @@
       <c r="N161" s="88"/>
       <c r="O161" s="87"/>
     </row>
-    <row r="162" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="41"/>
-      <c r="B162" s="50"/>
-      <c r="C162" s="42"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="68"/>
-      <c r="K162" s="58"/>
-      <c r="L162" s="69"/>
-      <c r="M162" s="70"/>
-      <c r="N162" s="69"/>
-      <c r="O162" s="58"/>
-    </row>
-    <row r="163" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="41"/>
-      <c r="B163" s="50"/>
-      <c r="C163" s="42"/>
-      <c r="D163" s="43"/>
-      <c r="E163" s="43"/>
-      <c r="F163" s="43"/>
-      <c r="G163" s="43"/>
-      <c r="H163" s="43"/>
-      <c r="I163" s="43"/>
-      <c r="J163" s="68"/>
-      <c r="K163" s="58"/>
-      <c r="L163" s="69"/>
-      <c r="M163" s="70"/>
-      <c r="N163" s="69"/>
-      <c r="O163" s="58"/>
+    <row r="162" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="83"/>
+      <c r="B162" s="84"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="47"/>
+      <c r="I162" s="47"/>
+      <c r="J162" s="86"/>
+      <c r="K162" s="87"/>
+      <c r="L162" s="88"/>
+      <c r="M162" s="89"/>
+      <c r="N162" s="88"/>
+      <c r="O162" s="87"/>
+    </row>
+    <row r="163" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="83"/>
+      <c r="B163" s="84"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="47"/>
+      <c r="H163" s="47"/>
+      <c r="I163" s="47"/>
+      <c r="J163" s="86"/>
+      <c r="K163" s="87"/>
+      <c r="L163" s="88"/>
+      <c r="M163" s="89"/>
+      <c r="N163" s="88"/>
+      <c r="O163" s="87"/>
     </row>
     <row r="164" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A164" s="41"/>
@@ -14139,6 +14158,40 @@
       <c r="N180" s="69"/>
       <c r="O180" s="58"/>
     </row>
+    <row r="181" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="41"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
+      <c r="J181" s="68"/>
+      <c r="K181" s="58"/>
+      <c r="L181" s="69"/>
+      <c r="M181" s="70"/>
+      <c r="N181" s="69"/>
+      <c r="O181" s="58"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A182" s="41"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
+      <c r="J182" s="68"/>
+      <c r="K182" s="58"/>
+      <c r="L182" s="69"/>
+      <c r="M182" s="70"/>
+      <c r="N182" s="69"/>
+      <c r="O182" s="58"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -14147,648 +14200,659 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="2" priority="229" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="232" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="230" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="233" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="231" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="234" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N12,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N12,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N12,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="111" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48">
+  <conditionalFormatting sqref="N39">
     <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54">
-    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N58">
+  <conditionalFormatting sqref="N56">
+    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
     <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
-    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
-    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68">
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="102" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N69">
-    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70">
-    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="115" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="119" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N71">
-    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="118" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="122" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N73">
-    <cfRule type="beginsWith" dxfId="2" priority="110" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="114" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N74">
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="113" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="117" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77">
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N78">
-    <cfRule type="beginsWith" dxfId="2" priority="148" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="150" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N79">
-    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N80">
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="151" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="152" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="153" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N81">
+    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N90">
+  <conditionalFormatting sqref="N82">
     <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N90,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N90,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N90,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N97">
-    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N85,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N85,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N85,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N98">
-    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N92">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N99">
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N106">
-    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N106,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N106,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="156" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N106,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N100">
+    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N107">
+  <conditionalFormatting sqref="N101">
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N108">
     <cfRule type="beginsWith" dxfId="2" priority="157" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N107,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N108,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="158" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N107,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N108,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="159" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N107,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N108,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N115">
-    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N115,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N115,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N115,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N109">
+    <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N109,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N109,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="162" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N109,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N138">
-    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N138,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N138,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N138,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N117">
+    <cfRule type="beginsWith" dxfId="2" priority="190" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N117,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="191" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N117,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="192" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N117,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N140">
+    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N140,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N140,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N140,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N7">
-    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N27">
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N64:N65">
-    <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N66:N67">
+    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N82">
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N83:N84">
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N84:N89">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N86:N91">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100:N102">
-    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N102:N104">
+    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103:N105">
-    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N127:N128">
-    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N127,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N127,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N127,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N105:N107">
+    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N129:N130">
+    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N129,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N129,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N129,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N131:N132">
+    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N131,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N131,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N131,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N133:N137">
     <cfRule type="beginsWith" dxfId="2" priority="181" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N129,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="182" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N129,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="183" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N129,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N131:N135">
-    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N131,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N131,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N131,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N152">
-    <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N152:N154">
+    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N152,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N152,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N152,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 N10:N11">
-    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N22 N32 N39:N41 N34:N35">
-    <cfRule type="beginsWith" dxfId="2" priority="163" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N14:N22 N32 N34:N35 N40:N42">
+    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="164" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="165" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N24 N29:N31">
-    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="138" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42:N46 N51:N53">
-    <cfRule type="beginsWith" dxfId="2" priority="139" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="141" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N43:N47 N53:N55">
+    <cfRule type="beginsWith" dxfId="2" priority="142" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="144" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47 N49:N50">
-    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N48 N50:N52">
+    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55:N57 N91:N96 N59:N61 N76">
-    <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N57:N59 N93:N98 N61:N63 N78">
+    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N108:N114 N116:N126 N153:N180 N141:N149">
-    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N108,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N108,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N108,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N110:N116 N118:N128 N155:N182 N143:N151">
+    <cfRule type="beginsWith" dxfId="2" priority="229" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N110,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="230" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N110,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="231" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N110,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N137 N139:N140">
-    <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N136,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N136,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N136,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N138:N139 N141:N142">
+    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N138,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N138,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N138,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C18 C19 C22 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C97 C98 C99 C100 C101 C102 C103 C106 C119 C120 C121 C128 C131 C134 C135 C138 C139 C140 C141 C144 C145 C146 C147 C150 C153 C154 C155 C156 C15:C17 C20:C21 C23:C24 C78:C79 C95:C96 C104:C105 C108:C109 C110:C118 C122:C127 C129:C130 C132:C133 C136:C137 C142:C143 C148:C149 C151:C152 C157:C180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C18 C19 C22 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C99 C100 C101 C102 C103 C104 C105 C108 C121 C122 C123 C130 C133 C136 C137 C140 C141 C142 C143 C146 C147 C148 C149 C152 C155 C156 C157 C158 C15:C17 C20:C21 C23:C24 C80:C81 C97:C98 C106:C107 C110:C111 C112:C120 C124:C129 C131:C132 C134:C135 C138:C139 C144:C145 C150:C151 C153:C154 C159:C182">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D18 D19 D22 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D119 D120 D121 D128 D131 D134 D135 D138 D139 D140 D141 D144 D145 D146 D147 D150 D153 D154 D155 D156 D15:D17 D20:D21 D23:D24 D108:D109 D110:D118 D122:D127 D129:D130 D132:D133 D136:D137 D142:D143 D148:D149 D151:D152 D157:D180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D18 D19 D22 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D121 D122 D123 D130 D133 D136 D137 D140 D141 D142 D143 D146 D147 D148 D149 D152 D155 D156 D157 D158 D15:D17 D20:D21 D23:D24 D110:D111 D112:D120 D124:D129 D131:D132 D134:D135 D138:D139 D144:D145 D150:D151 D153:D154 D159:D182">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-Godown.xlsx
+++ b/tests/artifact/script/Mobile-Godown.xlsx
@@ -9990,8 +9990,8 @@
   <sheetPr/>
   <dimension ref="A1:O182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D79" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
